--- a/issuedot-server/static/용어.xlsx
+++ b/issuedot-server/static/용어.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6050" uniqueCount="3041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6048" uniqueCount="3040">
   <si>
     <t>주제</t>
   </si>
@@ -5335,9 +5335,6 @@
   </si>
   <si>
     <t>앰부시 마케팅</t>
-  </si>
-  <si>
-    <t>앱</t>
   </si>
   <si>
     <t>앱세서리</t>
@@ -9511,7 +9508,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3038"/>
+  <dimension ref="A1:B3037"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -23657,7 +23654,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1771" customHeight="1" ht="19.5">
       <c r="A1771" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1771" s="2" t="s">
         <v>1774</v>
@@ -23673,7 +23670,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1773" customHeight="1" ht="19.5">
       <c r="A1773" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1773" s="2" t="s">
         <v>1776</v>
@@ -23689,7 +23686,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1775" customHeight="1" ht="19.5">
       <c r="A1775" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1775" s="2" t="s">
         <v>1778</v>
@@ -23705,7 +23702,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1777" customHeight="1" ht="19.5">
       <c r="A1777" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1777" s="2" t="s">
         <v>1780</v>
@@ -23713,7 +23710,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1778" customHeight="1" ht="19.5">
       <c r="A1778" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1778" s="2" t="s">
         <v>1781</v>
@@ -23721,7 +23718,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1779" customHeight="1" ht="19.5">
       <c r="A1779" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1779" s="2" t="s">
         <v>1782</v>
@@ -23729,7 +23726,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1780" customHeight="1" ht="19.5">
       <c r="A1780" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1780" s="2" t="s">
         <v>1783</v>
@@ -23737,7 +23734,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1781" customHeight="1" ht="19.5">
       <c r="A1781" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1781" s="2" t="s">
         <v>1784</v>
@@ -23777,7 +23774,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1786" customHeight="1" ht="19.5">
       <c r="A1786" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1786" s="2" t="s">
         <v>1789</v>
@@ -23785,7 +23782,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1787" customHeight="1" ht="19.5">
       <c r="A1787" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1787" s="2" t="s">
         <v>1790</v>
@@ -23793,7 +23790,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1788" customHeight="1" ht="19.5">
       <c r="A1788" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1788" s="2" t="s">
         <v>1791</v>
@@ -23801,7 +23798,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1789" customHeight="1" ht="19.5">
       <c r="A1789" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1789" s="2" t="s">
         <v>1792</v>
@@ -23817,7 +23814,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1791" customHeight="1" ht="19.5">
       <c r="A1791" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1791" s="2" t="s">
         <v>1794</v>
@@ -23825,7 +23822,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1792" customHeight="1" ht="19.5">
       <c r="A1792" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1792" s="2" t="s">
         <v>1795</v>
@@ -23833,7 +23830,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1793" customHeight="1" ht="19.5">
       <c r="A1793" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1793" s="2" t="s">
         <v>1796</v>
@@ -23841,7 +23838,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1794" customHeight="1" ht="19.5">
       <c r="A1794" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B1794" s="2" t="s">
         <v>1797</v>
@@ -23849,7 +23846,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1795" customHeight="1" ht="19.5">
       <c r="A1795" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1795" s="2" t="s">
         <v>1798</v>
@@ -23857,7 +23854,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1796" customHeight="1" ht="19.5">
       <c r="A1796" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1796" s="2" t="s">
         <v>1799</v>
@@ -23881,7 +23878,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1799" customHeight="1" ht="19.5">
       <c r="A1799" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1799" s="2" t="s">
         <v>1802</v>
@@ -23889,7 +23886,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1800" customHeight="1" ht="19.5">
       <c r="A1800" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B1800" s="2" t="s">
         <v>1803</v>
@@ -23913,7 +23910,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1803" customHeight="1" ht="19.5">
       <c r="A1803" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1803" s="2" t="s">
         <v>1806</v>
@@ -23929,7 +23926,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1805" customHeight="1" ht="19.5">
       <c r="A1805" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1805" s="2" t="s">
         <v>1808</v>
@@ -23937,7 +23934,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1806" customHeight="1" ht="19.5">
       <c r="A1806" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1806" s="2" t="s">
         <v>1809</v>
@@ -23945,7 +23942,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1807" customHeight="1" ht="19.5">
       <c r="A1807" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B1807" s="2" t="s">
         <v>1810</v>
@@ -23953,7 +23950,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1808" customHeight="1" ht="19.5">
       <c r="A1808" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B1808" s="2" t="s">
         <v>1811</v>
@@ -23961,7 +23958,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1809" customHeight="1" ht="19.5">
       <c r="A1809" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1809" s="2" t="s">
         <v>1812</v>
@@ -23977,7 +23974,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1811" customHeight="1" ht="19.5">
       <c r="A1811" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1811" s="2" t="s">
         <v>1814</v>
@@ -23985,7 +23982,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1812" customHeight="1" ht="19.5">
       <c r="A1812" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B1812" s="2" t="s">
         <v>1815</v>
@@ -23993,7 +23990,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1813" customHeight="1" ht="19.5">
       <c r="A1813" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B1813" s="2" t="s">
         <v>1816</v>
@@ -24017,7 +24014,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1816" customHeight="1" ht="19.5">
       <c r="A1816" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1816" s="2" t="s">
         <v>1819</v>
@@ -24025,7 +24022,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1817" customHeight="1" ht="19.5">
       <c r="A1817" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1817" s="2" t="s">
         <v>1820</v>
@@ -24033,7 +24030,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1818" customHeight="1" ht="19.5">
       <c r="A1818" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1818" s="2" t="s">
         <v>1821</v>
@@ -24041,7 +24038,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1819" customHeight="1" ht="19.5">
       <c r="A1819" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1819" s="2" t="s">
         <v>1822</v>
@@ -24049,7 +24046,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1820" customHeight="1" ht="19.5">
       <c r="A1820" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1820" s="2" t="s">
         <v>1823</v>
@@ -24057,7 +24054,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1821" customHeight="1" ht="19.5">
       <c r="A1821" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1821" s="2" t="s">
         <v>1824</v>
@@ -24065,7 +24062,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1822" customHeight="1" ht="19.5">
       <c r="A1822" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1822" s="2" t="s">
         <v>1825</v>
@@ -24073,7 +24070,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1823" customHeight="1" ht="19.5">
       <c r="A1823" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1823" s="2" t="s">
         <v>1826</v>
@@ -24081,7 +24078,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1824" customHeight="1" ht="19.5">
       <c r="A1824" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1824" s="2" t="s">
         <v>1827</v>
@@ -24089,7 +24086,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1825" customHeight="1" ht="19.5">
       <c r="A1825" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1825" s="2" t="s">
         <v>1828</v>
@@ -24097,7 +24094,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1826" customHeight="1" ht="19.5">
       <c r="A1826" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1826" s="2" t="s">
         <v>1829</v>
@@ -24105,7 +24102,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1827" customHeight="1" ht="19.5">
       <c r="A1827" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B1827" s="2" t="s">
         <v>1830</v>
@@ -24113,7 +24110,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1828" customHeight="1" ht="19.5">
       <c r="A1828" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B1828" s="2" t="s">
         <v>1831</v>
@@ -24121,7 +24118,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1829" customHeight="1" ht="19.5">
       <c r="A1829" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1829" s="2" t="s">
         <v>1832</v>
@@ -24137,7 +24134,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1831" customHeight="1" ht="19.5">
       <c r="A1831" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1831" s="2" t="s">
         <v>1834</v>
@@ -24145,7 +24142,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1832" customHeight="1" ht="19.5">
       <c r="A1832" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1832" s="2" t="s">
         <v>1835</v>
@@ -24153,7 +24150,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1833" customHeight="1" ht="19.5">
       <c r="A1833" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1833" s="2" t="s">
         <v>1836</v>
@@ -24161,7 +24158,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1834" customHeight="1" ht="19.5">
       <c r="A1834" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B1834" s="2" t="s">
         <v>1837</v>
@@ -24169,7 +24166,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1835" customHeight="1" ht="19.5">
       <c r="A1835" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1835" s="2" t="s">
         <v>1838</v>
@@ -24177,7 +24174,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1836" customHeight="1" ht="19.5">
       <c r="A1836" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1836" s="2" t="s">
         <v>1839</v>
@@ -24185,7 +24182,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1837" customHeight="1" ht="19.5">
       <c r="A1837" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1837" s="2" t="s">
         <v>1840</v>
@@ -24201,7 +24198,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1839" customHeight="1" ht="19.5">
       <c r="A1839" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1839" s="2" t="s">
         <v>1842</v>
@@ -24209,7 +24206,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1840" customHeight="1" ht="19.5">
       <c r="A1840" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1840" s="2" t="s">
         <v>1843</v>
@@ -24225,7 +24222,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1842" customHeight="1" ht="19.5">
       <c r="A1842" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1842" s="2" t="s">
         <v>1845</v>
@@ -24233,7 +24230,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1843" customHeight="1" ht="19.5">
       <c r="A1843" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1843" s="2" t="s">
         <v>1846</v>
@@ -24249,7 +24246,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1845" customHeight="1" ht="19.5">
       <c r="A1845" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1845" s="2" t="s">
         <v>1848</v>
@@ -24265,7 +24262,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1847" customHeight="1" ht="19.5">
       <c r="A1847" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1847" s="2" t="s">
         <v>1850</v>
@@ -24273,7 +24270,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1848" customHeight="1" ht="19.5">
       <c r="A1848" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1848" s="2" t="s">
         <v>1851</v>
@@ -24297,7 +24294,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1851" customHeight="1" ht="19.5">
       <c r="A1851" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1851" s="2" t="s">
         <v>1854</v>
@@ -24313,7 +24310,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1853" customHeight="1" ht="19.5">
       <c r="A1853" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B1853" s="2" t="s">
         <v>1856</v>
@@ -24321,7 +24318,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1854" customHeight="1" ht="19.5">
       <c r="A1854" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1854" s="2" t="s">
         <v>1857</v>
@@ -24329,7 +24326,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1855" customHeight="1" ht="19.5">
       <c r="A1855" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1855" s="2" t="s">
         <v>1858</v>
@@ -24377,7 +24374,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1861" customHeight="1" ht="19.5">
       <c r="A1861" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1861" s="2" t="s">
         <v>1864</v>
@@ -24401,7 +24398,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1864" customHeight="1" ht="19.5">
       <c r="A1864" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1864" s="2" t="s">
         <v>1867</v>
@@ -24425,7 +24422,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1867" customHeight="1" ht="19.5">
       <c r="A1867" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B1867" s="2" t="s">
         <v>1870</v>
@@ -24433,7 +24430,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1868" customHeight="1" ht="19.5">
       <c r="A1868" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1868" s="2" t="s">
         <v>1871</v>
@@ -24441,7 +24438,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1869" customHeight="1" ht="19.5">
       <c r="A1869" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1869" s="2" t="s">
         <v>1872</v>
@@ -24457,7 +24454,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1871" customHeight="1" ht="19.5">
       <c r="A1871" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1871" s="2" t="s">
         <v>1874</v>
@@ -24465,7 +24462,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1872" customHeight="1" ht="19.5">
       <c r="A1872" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1872" s="2" t="s">
         <v>1875</v>
@@ -24481,7 +24478,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1874" customHeight="1" ht="19.5">
       <c r="A1874" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1874" s="2" t="s">
         <v>1877</v>
@@ -24497,7 +24494,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1876" customHeight="1" ht="19.5">
       <c r="A1876" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B1876" s="2" t="s">
         <v>1879</v>
@@ -24505,7 +24502,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1877" customHeight="1" ht="19.5">
       <c r="A1877" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1877" s="2" t="s">
         <v>1880</v>
@@ -24553,7 +24550,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1883" customHeight="1" ht="19.5">
       <c r="A1883" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1883" s="2" t="s">
         <v>1886</v>
@@ -24561,7 +24558,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1884" customHeight="1" ht="19.5">
       <c r="A1884" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B1884" s="2" t="s">
         <v>1887</v>
@@ -24633,7 +24630,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1893" customHeight="1" ht="19.5">
       <c r="A1893" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1893" s="2" t="s">
         <v>1896</v>
@@ -24641,7 +24638,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1894" customHeight="1" ht="19.5">
       <c r="A1894" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B1894" s="2" t="s">
         <v>1897</v>
@@ -24657,7 +24654,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1896" customHeight="1" ht="19.5">
       <c r="A1896" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1896" s="2" t="s">
         <v>1899</v>
@@ -24665,7 +24662,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1897" customHeight="1" ht="19.5">
       <c r="A1897" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1897" s="2" t="s">
         <v>1900</v>
@@ -24689,7 +24686,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1900" customHeight="1" ht="19.5">
       <c r="A1900" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1900" s="2" t="s">
         <v>1903</v>
@@ -24705,7 +24702,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1902" customHeight="1" ht="19.5">
       <c r="A1902" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1902" s="2" t="s">
         <v>1905</v>
@@ -24721,7 +24718,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1904" customHeight="1" ht="19.5">
       <c r="A1904" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1904" s="2" t="s">
         <v>1907</v>
@@ -24729,7 +24726,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1905" customHeight="1" ht="19.5">
       <c r="A1905" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B1905" s="2" t="s">
         <v>1908</v>
@@ -24737,7 +24734,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1906" customHeight="1" ht="19.5">
       <c r="A1906" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1906" s="2" t="s">
         <v>1909</v>
@@ -24745,7 +24742,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1907" customHeight="1" ht="19.5">
       <c r="A1907" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1907" s="2" t="s">
         <v>1910</v>
@@ -24769,7 +24766,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1910" customHeight="1" ht="19.5">
       <c r="A1910" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1910" s="2" t="s">
         <v>1913</v>
@@ -24777,7 +24774,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1911" customHeight="1" ht="19.5">
       <c r="A1911" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1911" s="2" t="s">
         <v>1914</v>
@@ -24785,7 +24782,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1912" customHeight="1" ht="19.5">
       <c r="A1912" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1912" s="2" t="s">
         <v>1915</v>
@@ -24793,7 +24790,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1913" customHeight="1" ht="19.5">
       <c r="A1913" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1913" s="2" t="s">
         <v>1916</v>
@@ -24801,7 +24798,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1914" customHeight="1" ht="19.5">
       <c r="A1914" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1914" s="2" t="s">
         <v>1917</v>
@@ -24809,7 +24806,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1915" customHeight="1" ht="19.5">
       <c r="A1915" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1915" s="2" t="s">
         <v>1918</v>
@@ -24817,7 +24814,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1916" customHeight="1" ht="19.5">
       <c r="A1916" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B1916" s="2" t="s">
         <v>1919</v>
@@ -24825,7 +24822,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1917" customHeight="1" ht="19.5">
       <c r="A1917" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B1917" s="2" t="s">
         <v>1920</v>
@@ -24849,7 +24846,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1920" customHeight="1" ht="19.5">
       <c r="A1920" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1920" s="2" t="s">
         <v>1923</v>
@@ -24857,7 +24854,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1921" customHeight="1" ht="19.5">
       <c r="A1921" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B1921" s="2" t="s">
         <v>1924</v>
@@ -24865,7 +24862,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1922" customHeight="1" ht="19.5">
       <c r="A1922" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1922" s="2" t="s">
         <v>1925</v>
@@ -24889,7 +24886,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1925" customHeight="1" ht="19.5">
       <c r="A1925" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1925" s="2" t="s">
         <v>1928</v>
@@ -24897,7 +24894,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1926" customHeight="1" ht="19.5">
       <c r="A1926" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1926" s="2" t="s">
         <v>1929</v>
@@ -24905,7 +24902,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1927" customHeight="1" ht="19.5">
       <c r="A1927" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B1927" s="2" t="s">
         <v>1930</v>
@@ -24913,7 +24910,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1928" customHeight="1" ht="19.5">
       <c r="A1928" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1928" s="2" t="s">
         <v>1931</v>
@@ -24929,7 +24926,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1930" customHeight="1" ht="19.5">
       <c r="A1930" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1930" s="2" t="s">
         <v>1933</v>
@@ -24945,7 +24942,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1932" customHeight="1" ht="19.5">
       <c r="A1932" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B1932" s="2" t="s">
         <v>1935</v>
@@ -24977,7 +24974,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1936" customHeight="1" ht="19.5">
       <c r="A1936" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1936" s="2" t="s">
         <v>1939</v>
@@ -25001,7 +24998,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1939" customHeight="1" ht="19.5">
       <c r="A1939" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1939" s="2" t="s">
         <v>1942</v>
@@ -25009,7 +25006,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1940" customHeight="1" ht="19.5">
       <c r="A1940" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1940" s="2" t="s">
         <v>1943</v>
@@ -25025,7 +25022,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1942" customHeight="1" ht="19.5">
       <c r="A1942" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B1942" s="2" t="s">
         <v>1945</v>
@@ -25033,7 +25030,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1943" customHeight="1" ht="19.5">
       <c r="A1943" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1943" s="2" t="s">
         <v>1946</v>
@@ -25057,7 +25054,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1946" customHeight="1" ht="19.5">
       <c r="A1946" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1946" s="2" t="s">
         <v>1949</v>
@@ -25073,7 +25070,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1948" customHeight="1" ht="19.5">
       <c r="A1948" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1948" s="2" t="s">
         <v>1951</v>
@@ -25081,7 +25078,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1949" customHeight="1" ht="19.5">
       <c r="A1949" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B1949" s="2" t="s">
         <v>1952</v>
@@ -25089,7 +25086,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1950" customHeight="1" ht="19.5">
       <c r="A1950" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1950" s="2" t="s">
         <v>1953</v>
@@ -25097,7 +25094,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1951" customHeight="1" ht="19.5">
       <c r="A1951" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1951" s="2" t="s">
         <v>1954</v>
@@ -25105,7 +25102,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1952" customHeight="1" ht="19.5">
       <c r="A1952" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1952" s="2" t="s">
         <v>1955</v>
@@ -25113,7 +25110,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1953" customHeight="1" ht="19.5">
       <c r="A1953" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1953" s="2" t="s">
         <v>1956</v>
@@ -25121,7 +25118,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1954" customHeight="1" ht="19.5">
       <c r="A1954" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1954" s="2" t="s">
         <v>1957</v>
@@ -25129,7 +25126,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1955" customHeight="1" ht="19.5">
       <c r="A1955" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B1955" s="2" t="s">
         <v>1958</v>
@@ -25137,7 +25134,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1956" customHeight="1" ht="19.5">
       <c r="A1956" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1956" s="2" t="s">
         <v>1959</v>
@@ -25145,7 +25142,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1957" customHeight="1" ht="19.5">
       <c r="A1957" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1957" s="2" t="s">
         <v>1960</v>
@@ -25161,7 +25158,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1959" customHeight="1" ht="19.5">
       <c r="A1959" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1959" s="2" t="s">
         <v>1962</v>
@@ -25169,7 +25166,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1960" customHeight="1" ht="19.5">
       <c r="A1960" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1960" s="2" t="s">
         <v>1963</v>
@@ -25177,7 +25174,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1961" customHeight="1" ht="19.5">
       <c r="A1961" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1961" s="2" t="s">
         <v>1964</v>
@@ -25185,7 +25182,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1962" customHeight="1" ht="19.5">
       <c r="A1962" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1962" s="2" t="s">
         <v>1965</v>
@@ -25193,7 +25190,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1963" customHeight="1" ht="19.5">
       <c r="A1963" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1963" s="2" t="s">
         <v>1966</v>
@@ -25217,7 +25214,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1966" customHeight="1" ht="19.5">
       <c r="A1966" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1966" s="2" t="s">
         <v>1969</v>
@@ -25228,12 +25225,12 @@
         <v>10</v>
       </c>
       <c r="B1967" s="2" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="1968" customHeight="1" ht="19.5">
       <c r="A1968" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1968" s="2" t="s">
         <v>1970</v>
@@ -25249,7 +25246,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1970" customHeight="1" ht="19.5">
       <c r="A1970" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1970" s="2" t="s">
         <v>1972</v>
@@ -25257,7 +25254,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1971" customHeight="1" ht="19.5">
       <c r="A1971" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1971" s="2" t="s">
         <v>1973</v>
@@ -25265,7 +25262,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1972" customHeight="1" ht="19.5">
       <c r="A1972" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1972" s="2" t="s">
         <v>1974</v>
@@ -25273,7 +25270,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1973" customHeight="1" ht="19.5">
       <c r="A1973" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1973" s="2" t="s">
         <v>1975</v>
@@ -25281,7 +25278,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1974" customHeight="1" ht="19.5">
       <c r="A1974" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1974" s="2" t="s">
         <v>1976</v>
@@ -25289,7 +25286,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1975" customHeight="1" ht="19.5">
       <c r="A1975" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1975" s="2" t="s">
         <v>1977</v>
@@ -25321,7 +25318,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1979" customHeight="1" ht="19.5">
       <c r="A1979" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B1979" s="2" t="s">
         <v>1981</v>
@@ -25329,7 +25326,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1980" customHeight="1" ht="19.5">
       <c r="A1980" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B1980" s="2" t="s">
         <v>1982</v>
@@ -25361,7 +25358,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1984" customHeight="1" ht="19.5">
       <c r="A1984" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1984" s="2" t="s">
         <v>1986</v>
@@ -25377,7 +25374,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1986" customHeight="1" ht="19.5">
       <c r="A1986" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B1986" s="2" t="s">
         <v>1988</v>
@@ -25385,7 +25382,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1987" customHeight="1" ht="19.5">
       <c r="A1987" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B1987" s="2" t="s">
         <v>1989</v>
@@ -25393,7 +25390,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1988" customHeight="1" ht="19.5">
       <c r="A1988" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B1988" s="2" t="s">
         <v>1990</v>
@@ -25409,7 +25406,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1990" customHeight="1" ht="19.5">
       <c r="A1990" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1990" s="2" t="s">
         <v>1992</v>
@@ -25433,7 +25430,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1993" customHeight="1" ht="19.5">
       <c r="A1993" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1993" s="2" t="s">
         <v>1995</v>
@@ -25449,7 +25446,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1995" customHeight="1" ht="19.5">
       <c r="A1995" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B1995" s="2" t="s">
         <v>1997</v>
@@ -25457,7 +25454,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1996" customHeight="1" ht="19.5">
       <c r="A1996" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1996" s="2" t="s">
         <v>1998</v>
@@ -25473,7 +25470,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1998" customHeight="1" ht="19.5">
       <c r="A1998" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1998" s="2" t="s">
         <v>2000</v>
@@ -25481,7 +25478,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="1999" customHeight="1" ht="19.5">
       <c r="A1999" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1999" s="2" t="s">
         <v>2001</v>
@@ -25497,7 +25494,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2001" customHeight="1" ht="19.5">
       <c r="A2001" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2001" s="2" t="s">
         <v>2003</v>
@@ -25505,7 +25502,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2002" customHeight="1" ht="19.5">
       <c r="A2002" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2002" s="2" t="s">
         <v>2004</v>
@@ -25513,7 +25510,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2003" customHeight="1" ht="19.5">
       <c r="A2003" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2003" s="2" t="s">
         <v>2005</v>
@@ -25521,7 +25518,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2004" customHeight="1" ht="19.5">
       <c r="A2004" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2004" s="2" t="s">
         <v>2006</v>
@@ -25529,7 +25526,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2005" customHeight="1" ht="19.5">
       <c r="A2005" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2005" s="2" t="s">
         <v>2007</v>
@@ -25545,7 +25542,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2007" customHeight="1" ht="19.5">
       <c r="A2007" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2007" s="2" t="s">
         <v>2009</v>
@@ -25553,7 +25550,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2008" customHeight="1" ht="19.5">
       <c r="A2008" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2008" s="2" t="s">
         <v>2010</v>
@@ -25577,7 +25574,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2011" customHeight="1" ht="19.5">
       <c r="A2011" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2011" s="2" t="s">
         <v>2013</v>
@@ -25585,7 +25582,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2012" customHeight="1" ht="19.5">
       <c r="A2012" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2012" s="2" t="s">
         <v>2014</v>
@@ -25593,7 +25590,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2013" customHeight="1" ht="19.5">
       <c r="A2013" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2013" s="2" t="s">
         <v>2015</v>
@@ -25601,7 +25598,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2014" customHeight="1" ht="19.5">
       <c r="A2014" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2014" s="2" t="s">
         <v>2016</v>
@@ -25609,7 +25606,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2015" customHeight="1" ht="19.5">
       <c r="A2015" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2015" s="2" t="s">
         <v>2017</v>
@@ -25617,22 +25614,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2016" customHeight="1" ht="19.5">
       <c r="A2016" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2016" s="2" t="s">
         <v>2018</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2017" customHeight="1" ht="19.5">
-      <c r="A2017" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2017" s="2"/>
       <c r="B2017" s="2" t="s">
         <v>2019</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2018" customHeight="1" ht="19.5">
-      <c r="A2018" s="2"/>
+      <c r="A2018" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B2018" s="2" t="s">
         <v>2020</v>
       </c>
@@ -25647,7 +25644,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2020" customHeight="1" ht="19.5">
       <c r="A2020" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2020" s="2" t="s">
         <v>2022</v>
@@ -25655,7 +25652,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2021" customHeight="1" ht="19.5">
       <c r="A2021" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2021" s="2" t="s">
         <v>2023</v>
@@ -25663,7 +25660,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2022" customHeight="1" ht="19.5">
       <c r="A2022" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2022" s="2" t="s">
         <v>2024</v>
@@ -25671,7 +25668,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2023" customHeight="1" ht="19.5">
       <c r="A2023" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2023" s="2" t="s">
         <v>2025</v>
@@ -25679,7 +25676,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2024" customHeight="1" ht="19.5">
       <c r="A2024" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2024" s="2" t="s">
         <v>2026</v>
@@ -25687,7 +25684,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2025" customHeight="1" ht="19.5">
       <c r="A2025" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2025" s="2" t="s">
         <v>2027</v>
@@ -25695,7 +25692,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2026" customHeight="1" ht="19.5">
       <c r="A2026" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2026" s="2" t="s">
         <v>2028</v>
@@ -25703,7 +25700,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2027" customHeight="1" ht="19.5">
       <c r="A2027" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2027" s="2" t="s">
         <v>2029</v>
@@ -25711,7 +25708,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2028" customHeight="1" ht="19.5">
       <c r="A2028" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2028" s="2" t="s">
         <v>2030</v>
@@ -25719,7 +25716,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2029" customHeight="1" ht="19.5">
       <c r="A2029" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2029" s="2" t="s">
         <v>2031</v>
@@ -25727,7 +25724,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2030" customHeight="1" ht="19.5">
       <c r="A2030" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2030" s="2" t="s">
         <v>2032</v>
@@ -25735,7 +25732,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2031" customHeight="1" ht="19.5">
       <c r="A2031" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2031" s="2" t="s">
         <v>2033</v>
@@ -25751,7 +25748,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2033" customHeight="1" ht="19.5">
       <c r="A2033" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2033" s="2" t="s">
         <v>2035</v>
@@ -25759,7 +25756,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2034" customHeight="1" ht="19.5">
       <c r="A2034" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2034" s="2" t="s">
         <v>2036</v>
@@ -25767,7 +25764,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2035" customHeight="1" ht="19.5">
       <c r="A2035" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2035" s="2" t="s">
         <v>2037</v>
@@ -25783,7 +25780,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2037" customHeight="1" ht="19.5">
       <c r="A2037" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2037" s="2" t="s">
         <v>2039</v>
@@ -25791,7 +25788,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2038" customHeight="1" ht="19.5">
       <c r="A2038" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2038" s="2" t="s">
         <v>2040</v>
@@ -25799,7 +25796,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2039" customHeight="1" ht="19.5">
       <c r="A2039" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2039" s="2" t="s">
         <v>2041</v>
@@ -25807,7 +25804,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2040" customHeight="1" ht="19.5">
       <c r="A2040" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2040" s="2" t="s">
         <v>2042</v>
@@ -25815,7 +25812,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2041" customHeight="1" ht="19.5">
       <c r="A2041" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2041" s="2" t="s">
         <v>2043</v>
@@ -25823,7 +25820,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2042" customHeight="1" ht="19.5">
       <c r="A2042" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2042" s="2" t="s">
         <v>2044</v>
@@ -25847,7 +25844,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2045" customHeight="1" ht="19.5">
       <c r="A2045" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2045" s="2" t="s">
         <v>2047</v>
@@ -25855,7 +25852,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2046" customHeight="1" ht="19.5">
       <c r="A2046" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2046" s="2" t="s">
         <v>2048</v>
@@ -25863,7 +25860,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2047" customHeight="1" ht="19.5">
       <c r="A2047" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2047" s="2" t="s">
         <v>2049</v>
@@ -25871,7 +25868,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2048" customHeight="1" ht="19.5">
       <c r="A2048" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2048" s="2" t="s">
         <v>2050</v>
@@ -25879,7 +25876,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2049" customHeight="1" ht="19.5">
       <c r="A2049" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2049" s="2" t="s">
         <v>2051</v>
@@ -25887,7 +25884,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2050" customHeight="1" ht="19.5">
       <c r="A2050" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2050" s="2" t="s">
         <v>2052</v>
@@ -25895,7 +25892,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2051" customHeight="1" ht="19.5">
       <c r="A2051" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2051" s="2" t="s">
         <v>2053</v>
@@ -25903,7 +25900,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2052" customHeight="1" ht="19.5">
       <c r="A2052" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2052" s="2" t="s">
         <v>2054</v>
@@ -25911,7 +25908,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2053" customHeight="1" ht="19.5">
       <c r="A2053" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2053" s="2" t="s">
         <v>2055</v>
@@ -25919,7 +25916,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2054" customHeight="1" ht="19.5">
       <c r="A2054" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2054" s="2" t="s">
         <v>2056</v>
@@ -25927,7 +25924,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2055" customHeight="1" ht="19.5">
       <c r="A2055" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2055" s="2" t="s">
         <v>2057</v>
@@ -25935,7 +25932,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2056" customHeight="1" ht="19.5">
       <c r="A2056" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2056" s="2" t="s">
         <v>2058</v>
@@ -25943,7 +25940,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2057" customHeight="1" ht="19.5">
       <c r="A2057" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2057" s="2" t="s">
         <v>2059</v>
@@ -25951,7 +25948,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2058" customHeight="1" ht="19.5">
       <c r="A2058" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2058" s="2" t="s">
         <v>2060</v>
@@ -25959,7 +25956,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2059" customHeight="1" ht="19.5">
       <c r="A2059" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2059" s="2" t="s">
         <v>2061</v>
@@ -25967,7 +25964,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2060" customHeight="1" ht="19.5">
       <c r="A2060" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2060" s="2" t="s">
         <v>2062</v>
@@ -25975,7 +25972,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2061" customHeight="1" ht="19.5">
       <c r="A2061" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2061" s="2" t="s">
         <v>2063</v>
@@ -25983,7 +25980,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2062" customHeight="1" ht="19.5">
       <c r="A2062" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2062" s="2" t="s">
         <v>2064</v>
@@ -25991,7 +25988,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2063" customHeight="1" ht="19.5">
       <c r="A2063" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2063" s="2" t="s">
         <v>2065</v>
@@ -25999,7 +25996,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2064" customHeight="1" ht="19.5">
       <c r="A2064" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2064" s="2" t="s">
         <v>2066</v>
@@ -26007,7 +26004,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2065" customHeight="1" ht="19.5">
       <c r="A2065" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2065" s="2" t="s">
         <v>2067</v>
@@ -26023,7 +26020,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2067" customHeight="1" ht="19.5">
       <c r="A2067" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2067" s="2" t="s">
         <v>2069</v>
@@ -26031,7 +26028,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2068" customHeight="1" ht="19.5">
       <c r="A2068" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2068" s="2" t="s">
         <v>2070</v>
@@ -26039,7 +26036,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2069" customHeight="1" ht="19.5">
       <c r="A2069" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2069" s="2" t="s">
         <v>2071</v>
@@ -26047,7 +26044,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2070" customHeight="1" ht="19.5">
       <c r="A2070" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2070" s="2" t="s">
         <v>2072</v>
@@ -26071,7 +26068,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2073" customHeight="1" ht="19.5">
       <c r="A2073" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2073" s="2" t="s">
         <v>2075</v>
@@ -26103,7 +26100,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2077" customHeight="1" ht="19.5">
       <c r="A2077" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2077" s="2" t="s">
         <v>2079</v>
@@ -26127,7 +26124,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2080" customHeight="1" ht="19.5">
       <c r="A2080" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2080" s="2" t="s">
         <v>2082</v>
@@ -26135,7 +26132,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2081" customHeight="1" ht="19.5">
       <c r="A2081" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2081" s="2" t="s">
         <v>2083</v>
@@ -26143,7 +26140,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2082" customHeight="1" ht="19.5">
       <c r="A2082" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2082" s="2" t="s">
         <v>2084</v>
@@ -26151,7 +26148,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2083" customHeight="1" ht="19.5">
       <c r="A2083" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2083" s="2" t="s">
         <v>2085</v>
@@ -26175,7 +26172,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2086" customHeight="1" ht="19.5">
       <c r="A2086" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2086" s="2" t="s">
         <v>2088</v>
@@ -26183,29 +26180,29 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2087" customHeight="1" ht="19.5">
       <c r="A2087" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2087" s="2" t="s">
         <v>2089</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2088" customHeight="1" ht="19.5">
-      <c r="A2088" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A2088" s="2"/>
       <c r="B2088" s="2" t="s">
         <v>2090</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2089" customHeight="1" ht="19.5">
-      <c r="A2089" s="2"/>
+      <c r="A2089" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2089" s="2" t="s">
         <v>2091</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2090" customHeight="1" ht="19.5">
       <c r="A2090" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2090" s="2" t="s">
         <v>2092</v>
@@ -26229,7 +26226,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2093" customHeight="1" ht="19.5">
       <c r="A2093" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2093" s="2" t="s">
         <v>2095</v>
@@ -26237,7 +26234,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2094" customHeight="1" ht="19.5">
       <c r="A2094" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2094" s="2" t="s">
         <v>2096</v>
@@ -26252,22 +26249,22 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2096" customHeight="1" ht="19.5">
-      <c r="A2096" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A2096" s="2"/>
       <c r="B2096" s="2" t="s">
         <v>2098</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2097" customHeight="1" ht="19.5">
-      <c r="A2097" s="2"/>
+      <c r="A2097" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2097" s="2" t="s">
         <v>2099</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2098" customHeight="1" ht="19.5">
       <c r="A2098" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2098" s="2" t="s">
         <v>2100</v>
@@ -26275,7 +26272,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2099" customHeight="1" ht="19.5">
       <c r="A2099" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2099" s="2" t="s">
         <v>2101</v>
@@ -26283,7 +26280,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2100" customHeight="1" ht="19.5">
       <c r="A2100" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2100" s="2" t="s">
         <v>2102</v>
@@ -26291,7 +26288,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2101" customHeight="1" ht="19.5">
       <c r="A2101" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2101" s="2" t="s">
         <v>2103</v>
@@ -26299,7 +26296,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2102" customHeight="1" ht="19.5">
       <c r="A2102" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2102" s="2" t="s">
         <v>2104</v>
@@ -26307,7 +26304,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2103" customHeight="1" ht="19.5">
       <c r="A2103" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2103" s="2" t="s">
         <v>2105</v>
@@ -26315,7 +26312,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2104" customHeight="1" ht="19.5">
       <c r="A2104" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2104" s="2" t="s">
         <v>2106</v>
@@ -26323,7 +26320,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2105" customHeight="1" ht="19.5">
       <c r="A2105" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2105" s="2" t="s">
         <v>2107</v>
@@ -26331,7 +26328,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2106" customHeight="1" ht="19.5">
       <c r="A2106" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2106" s="2" t="s">
         <v>2108</v>
@@ -26347,7 +26344,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2108" customHeight="1" ht="19.5">
       <c r="A2108" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2108" s="2" t="s">
         <v>2110</v>
@@ -26355,7 +26352,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2109" customHeight="1" ht="19.5">
       <c r="A2109" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2109" s="2" t="s">
         <v>2111</v>
@@ -26363,7 +26360,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2110" customHeight="1" ht="19.5">
       <c r="A2110" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2110" s="2" t="s">
         <v>2112</v>
@@ -26371,7 +26368,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2111" customHeight="1" ht="19.5">
       <c r="A2111" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2111" s="2" t="s">
         <v>2113</v>
@@ -26379,7 +26376,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2112" customHeight="1" ht="19.5">
       <c r="A2112" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2112" s="2" t="s">
         <v>2114</v>
@@ -26395,7 +26392,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2114" customHeight="1" ht="19.5">
       <c r="A2114" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2114" s="2" t="s">
         <v>2116</v>
@@ -26403,7 +26400,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2115" customHeight="1" ht="19.5">
       <c r="A2115" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2115" s="2" t="s">
         <v>2117</v>
@@ -26419,7 +26416,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2117" customHeight="1" ht="19.5">
       <c r="A2117" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2117" s="2" t="s">
         <v>2119</v>
@@ -26427,7 +26424,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2118" customHeight="1" ht="19.5">
       <c r="A2118" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2118" s="2" t="s">
         <v>2120</v>
@@ -26435,7 +26432,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2119" customHeight="1" ht="19.5">
       <c r="A2119" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2119" s="2" t="s">
         <v>2121</v>
@@ -26443,7 +26440,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2120" customHeight="1" ht="19.5">
       <c r="A2120" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2120" s="2" t="s">
         <v>2122</v>
@@ -26451,7 +26448,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2121" customHeight="1" ht="19.5">
       <c r="A2121" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2121" s="2" t="s">
         <v>2123</v>
@@ -26459,7 +26456,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2122" customHeight="1" ht="19.5">
       <c r="A2122" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2122" s="2" t="s">
         <v>2124</v>
@@ -26483,7 +26480,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2125" customHeight="1" ht="19.5">
       <c r="A2125" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2125" s="2" t="s">
         <v>2127</v>
@@ -26491,7 +26488,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2126" customHeight="1" ht="19.5">
       <c r="A2126" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2126" s="2" t="s">
         <v>2128</v>
@@ -26499,7 +26496,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2127" customHeight="1" ht="19.5">
       <c r="A2127" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2127" s="2" t="s">
         <v>2129</v>
@@ -26515,7 +26512,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2129" customHeight="1" ht="19.5">
       <c r="A2129" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2129" s="2" t="s">
         <v>2131</v>
@@ -26539,7 +26536,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2132" customHeight="1" ht="19.5">
       <c r="A2132" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2132" s="2" t="s">
         <v>2134</v>
@@ -26547,7 +26544,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2133" customHeight="1" ht="19.5">
       <c r="A2133" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2133" s="2" t="s">
         <v>2135</v>
@@ -26603,7 +26600,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2140" customHeight="1" ht="19.5">
       <c r="A2140" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2140" s="2" t="s">
         <v>2142</v>
@@ -26611,7 +26608,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2141" customHeight="1" ht="19.5">
       <c r="A2141" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2141" s="2" t="s">
         <v>2143</v>
@@ -26619,7 +26616,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2142" customHeight="1" ht="19.5">
       <c r="A2142" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2142" s="2" t="s">
         <v>2144</v>
@@ -26627,7 +26624,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2143" customHeight="1" ht="19.5">
       <c r="A2143" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2143" s="2" t="s">
         <v>2145</v>
@@ -26635,7 +26632,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2144" customHeight="1" ht="19.5">
       <c r="A2144" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2144" s="2" t="s">
         <v>2146</v>
@@ -26643,7 +26640,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2145" customHeight="1" ht="19.5">
       <c r="A2145" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2145" s="2" t="s">
         <v>2147</v>
@@ -26651,7 +26648,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2146" customHeight="1" ht="19.5">
       <c r="A2146" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2146" s="2" t="s">
         <v>2148</v>
@@ -26659,7 +26656,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2147" customHeight="1" ht="19.5">
       <c r="A2147" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2147" s="2" t="s">
         <v>2149</v>
@@ -26667,7 +26664,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2148" customHeight="1" ht="19.5">
       <c r="A2148" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2148" s="2" t="s">
         <v>2150</v>
@@ -26707,7 +26704,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2153" customHeight="1" ht="19.5">
       <c r="A2153" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2153" s="2" t="s">
         <v>2155</v>
@@ -26723,7 +26720,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2155" customHeight="1" ht="19.5">
       <c r="A2155" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2155" s="2" t="s">
         <v>2157</v>
@@ -26731,7 +26728,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2156" customHeight="1" ht="19.5">
       <c r="A2156" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2156" s="2" t="s">
         <v>2158</v>
@@ -26739,7 +26736,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2157" customHeight="1" ht="19.5">
       <c r="A2157" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2157" s="2" t="s">
         <v>2159</v>
@@ -26763,7 +26760,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2160" customHeight="1" ht="19.5">
       <c r="A2160" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2160" s="2" t="s">
         <v>2162</v>
@@ -26787,7 +26784,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2163" customHeight="1" ht="19.5">
       <c r="A2163" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2163" s="2" t="s">
         <v>2165</v>
@@ -26795,7 +26792,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2164" customHeight="1" ht="19.5">
       <c r="A2164" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2164" s="2" t="s">
         <v>2166</v>
@@ -26803,7 +26800,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2165" customHeight="1" ht="19.5">
       <c r="A2165" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2165" s="2" t="s">
         <v>2167</v>
@@ -26851,7 +26848,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2171" customHeight="1" ht="19.5">
       <c r="A2171" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2171" s="2" t="s">
         <v>2173</v>
@@ -26859,7 +26856,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2172" customHeight="1" ht="19.5">
       <c r="A2172" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2172" s="2" t="s">
         <v>2174</v>
@@ -26867,7 +26864,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2173" customHeight="1" ht="19.5">
       <c r="A2173" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2173" s="2" t="s">
         <v>2175</v>
@@ -26883,7 +26880,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2175" customHeight="1" ht="19.5">
       <c r="A2175" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2175" s="2" t="s">
         <v>2177</v>
@@ -26891,7 +26888,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2176" customHeight="1" ht="19.5">
       <c r="A2176" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2176" s="2" t="s">
         <v>2178</v>
@@ -26899,7 +26896,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2177" customHeight="1" ht="19.5">
       <c r="A2177" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2177" s="2" t="s">
         <v>2179</v>
@@ -26907,7 +26904,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2178" customHeight="1" ht="19.5">
       <c r="A2178" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2178" s="2" t="s">
         <v>2180</v>
@@ -26931,7 +26928,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2181" customHeight="1" ht="19.5">
       <c r="A2181" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2181" s="2" t="s">
         <v>2183</v>
@@ -26939,7 +26936,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2182" customHeight="1" ht="19.5">
       <c r="A2182" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2182" s="2" t="s">
         <v>2184</v>
@@ -26947,7 +26944,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2183" customHeight="1" ht="19.5">
       <c r="A2183" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2183" s="2" t="s">
         <v>2185</v>
@@ -26955,7 +26952,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2184" customHeight="1" ht="19.5">
       <c r="A2184" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2184" s="2" t="s">
         <v>2186</v>
@@ -26963,7 +26960,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2185" customHeight="1" ht="19.5">
       <c r="A2185" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2185" s="2" t="s">
         <v>2187</v>
@@ -27011,7 +27008,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2191" customHeight="1" ht="19.5">
       <c r="A2191" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2191" s="2" t="s">
         <v>2193</v>
@@ -27019,7 +27016,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2192" customHeight="1" ht="19.5">
       <c r="A2192" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2192" s="2" t="s">
         <v>2194</v>
@@ -27027,7 +27024,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2193" customHeight="1" ht="19.5">
       <c r="A2193" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2193" s="2" t="s">
         <v>2195</v>
@@ -27035,7 +27032,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2194" customHeight="1" ht="19.5">
       <c r="A2194" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2194" s="2" t="s">
         <v>2196</v>
@@ -27043,7 +27040,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2195" customHeight="1" ht="19.5">
       <c r="A2195" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2195" s="2" t="s">
         <v>2197</v>
@@ -27075,7 +27072,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2199" customHeight="1" ht="19.5">
       <c r="A2199" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2199" s="2" t="s">
         <v>2201</v>
@@ -27083,7 +27080,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2200" customHeight="1" ht="19.5">
       <c r="A2200" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2200" s="2" t="s">
         <v>2202</v>
@@ -27091,7 +27088,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2201" customHeight="1" ht="19.5">
       <c r="A2201" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2201" s="2" t="s">
         <v>2203</v>
@@ -27107,7 +27104,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2203" customHeight="1" ht="19.5">
       <c r="A2203" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2203" s="2" t="s">
         <v>2205</v>
@@ -27123,7 +27120,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2205" customHeight="1" ht="19.5">
       <c r="A2205" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2205" s="2" t="s">
         <v>2207</v>
@@ -27147,7 +27144,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2208" customHeight="1" ht="19.5">
       <c r="A2208" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2208" s="2" t="s">
         <v>2210</v>
@@ -27155,7 +27152,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2209" customHeight="1" ht="19.5">
       <c r="A2209" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2209" s="2" t="s">
         <v>2211</v>
@@ -27171,7 +27168,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2211" customHeight="1" ht="19.5">
       <c r="A2211" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2211" s="2" t="s">
         <v>2213</v>
@@ -27179,7 +27176,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2212" customHeight="1" ht="19.5">
       <c r="A2212" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2212" s="2" t="s">
         <v>2214</v>
@@ -27187,7 +27184,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2213" customHeight="1" ht="19.5">
       <c r="A2213" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2213" s="2" t="s">
         <v>2215</v>
@@ -27195,7 +27192,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2214" customHeight="1" ht="19.5">
       <c r="A2214" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2214" s="2" t="s">
         <v>2216</v>
@@ -27203,7 +27200,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2215" customHeight="1" ht="19.5">
       <c r="A2215" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2215" s="2" t="s">
         <v>2217</v>
@@ -27211,7 +27208,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2216" customHeight="1" ht="19.5">
       <c r="A2216" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2216" s="2" t="s">
         <v>2218</v>
@@ -27219,7 +27216,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2217" customHeight="1" ht="19.5">
       <c r="A2217" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2217" s="2" t="s">
         <v>2219</v>
@@ -27227,7 +27224,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2218" customHeight="1" ht="19.5">
       <c r="A2218" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2218" s="2" t="s">
         <v>2220</v>
@@ -27243,7 +27240,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2220" customHeight="1" ht="19.5">
       <c r="A2220" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2220" s="2" t="s">
         <v>2222</v>
@@ -27251,7 +27248,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2221" customHeight="1" ht="19.5">
       <c r="A2221" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2221" s="2" t="s">
         <v>2223</v>
@@ -27259,7 +27256,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2222" customHeight="1" ht="19.5">
       <c r="A2222" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2222" s="2" t="s">
         <v>2224</v>
@@ -27275,7 +27272,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2224" customHeight="1" ht="19.5">
       <c r="A2224" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2224" s="2" t="s">
         <v>2226</v>
@@ -27283,7 +27280,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2225" customHeight="1" ht="19.5">
       <c r="A2225" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2225" s="2" t="s">
         <v>2227</v>
@@ -27299,7 +27296,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2227" customHeight="1" ht="19.5">
       <c r="A2227" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2227" s="2" t="s">
         <v>2229</v>
@@ -27307,7 +27304,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2228" customHeight="1" ht="19.5">
       <c r="A2228" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2228" s="2" t="s">
         <v>2230</v>
@@ -27323,7 +27320,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2230" customHeight="1" ht="19.5">
       <c r="A2230" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2230" s="2" t="s">
         <v>2232</v>
@@ -27339,7 +27336,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2232" customHeight="1" ht="19.5">
       <c r="A2232" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2232" s="2" t="s">
         <v>2234</v>
@@ -27347,7 +27344,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2233" customHeight="1" ht="19.5">
       <c r="A2233" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2233" s="2" t="s">
         <v>2235</v>
@@ -27355,7 +27352,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2234" customHeight="1" ht="19.5">
       <c r="A2234" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2234" s="2" t="s">
         <v>2236</v>
@@ -27363,7 +27360,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2235" customHeight="1" ht="19.5">
       <c r="A2235" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2235" s="2" t="s">
         <v>2237</v>
@@ -27371,7 +27368,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2236" customHeight="1" ht="19.5">
       <c r="A2236" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2236" s="2" t="s">
         <v>2238</v>
@@ -27379,7 +27376,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2237" customHeight="1" ht="19.5">
       <c r="A2237" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2237" s="2" t="s">
         <v>2239</v>
@@ -27387,7 +27384,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2238" customHeight="1" ht="19.5">
       <c r="A2238" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2238" s="2" t="s">
         <v>2240</v>
@@ -27395,7 +27392,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2239" customHeight="1" ht="19.5">
       <c r="A2239" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2239" s="2" t="s">
         <v>2241</v>
@@ -27411,7 +27408,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2241" customHeight="1" ht="19.5">
       <c r="A2241" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2241" s="2" t="s">
         <v>2243</v>
@@ -27419,7 +27416,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2242" customHeight="1" ht="19.5">
       <c r="A2242" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2242" s="2" t="s">
         <v>2244</v>
@@ -27427,7 +27424,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2243" customHeight="1" ht="19.5">
       <c r="A2243" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2243" s="2" t="s">
         <v>2245</v>
@@ -27435,7 +27432,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2244" customHeight="1" ht="19.5">
       <c r="A2244" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2244" s="2" t="s">
         <v>2246</v>
@@ -27443,7 +27440,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2245" customHeight="1" ht="19.5">
       <c r="A2245" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2245" s="2" t="s">
         <v>2247</v>
@@ -27467,7 +27464,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2248" customHeight="1" ht="19.5">
       <c r="A2248" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2248" s="2" t="s">
         <v>2250</v>
@@ -27483,7 +27480,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2250" customHeight="1" ht="19.5">
       <c r="A2250" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2250" s="2" t="s">
         <v>2252</v>
@@ -27491,7 +27488,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2251" customHeight="1" ht="19.5">
       <c r="A2251" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2251" s="2" t="s">
         <v>2253</v>
@@ -27507,16 +27504,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2253" customHeight="1" ht="19.5">
       <c r="A2253" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2253" s="2" t="s">
         <v>2255</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2254" customHeight="1" ht="19.5">
-      <c r="A2254" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2254" s="2"/>
       <c r="B2254" s="2" t="s">
         <v>2256</v>
       </c>
@@ -27528,7 +27523,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2256" customHeight="1" ht="19.5">
-      <c r="A2256" s="2"/>
+      <c r="A2256" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B2256" s="2" t="s">
         <v>2258</v>
       </c>
@@ -27543,7 +27540,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2258" customHeight="1" ht="19.5">
       <c r="A2258" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2258" s="2" t="s">
         <v>2260</v>
@@ -27551,7 +27548,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2259" customHeight="1" ht="19.5">
       <c r="A2259" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2259" s="2" t="s">
         <v>2261</v>
@@ -27559,7 +27556,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2260" customHeight="1" ht="19.5">
       <c r="A2260" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2260" s="2" t="s">
         <v>2262</v>
@@ -27567,7 +27564,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2261" customHeight="1" ht="19.5">
       <c r="A2261" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2261" s="2" t="s">
         <v>2263</v>
@@ -27591,7 +27588,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2264" customHeight="1" ht="19.5">
       <c r="A2264" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2264" s="2" t="s">
         <v>2266</v>
@@ -27599,7 +27596,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2265" customHeight="1" ht="19.5">
       <c r="A2265" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2265" s="2" t="s">
         <v>2267</v>
@@ -27607,7 +27604,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2266" customHeight="1" ht="19.5">
       <c r="A2266" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2266" s="2" t="s">
         <v>2268</v>
@@ -27679,7 +27676,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2275" customHeight="1" ht="19.5">
       <c r="A2275" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2275" s="2" t="s">
         <v>2277</v>
@@ -27695,7 +27692,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2277" customHeight="1" ht="19.5">
       <c r="A2277" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2277" s="2" t="s">
         <v>2279</v>
@@ -27703,7 +27700,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2278" customHeight="1" ht="19.5">
       <c r="A2278" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2278" s="2" t="s">
         <v>2280</v>
@@ -27711,7 +27708,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2279" customHeight="1" ht="19.5">
       <c r="A2279" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2279" s="2" t="s">
         <v>2281</v>
@@ -27727,7 +27724,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2281" customHeight="1" ht="19.5">
       <c r="A2281" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2281" s="2" t="s">
         <v>2283</v>
@@ -27735,7 +27732,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2282" customHeight="1" ht="19.5">
       <c r="A2282" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2282" s="2" t="s">
         <v>2284</v>
@@ -27743,7 +27740,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2283" customHeight="1" ht="19.5">
       <c r="A2283" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2283" s="2" t="s">
         <v>2285</v>
@@ -27751,7 +27748,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2284" customHeight="1" ht="19.5">
       <c r="A2284" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2284" s="2" t="s">
         <v>2286</v>
@@ -27759,7 +27756,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2285" customHeight="1" ht="19.5">
       <c r="A2285" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2285" s="2" t="s">
         <v>2287</v>
@@ -27767,7 +27764,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2286" customHeight="1" ht="19.5">
       <c r="A2286" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2286" s="2" t="s">
         <v>2288</v>
@@ -27775,7 +27772,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2287" customHeight="1" ht="19.5">
       <c r="A2287" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2287" s="2" t="s">
         <v>2289</v>
@@ -27791,7 +27788,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2289" customHeight="1" ht="19.5">
       <c r="A2289" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2289" s="2" t="s">
         <v>2291</v>
@@ -27799,7 +27796,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2290" customHeight="1" ht="19.5">
       <c r="A2290" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2290" s="2" t="s">
         <v>2292</v>
@@ -27831,7 +27828,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2294" customHeight="1" ht="19.5">
       <c r="A2294" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2294" s="2" t="s">
         <v>2296</v>
@@ -27839,7 +27836,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2295" customHeight="1" ht="19.5">
       <c r="A2295" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2295" s="2" t="s">
         <v>2297</v>
@@ -27855,7 +27852,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2297" customHeight="1" ht="19.5">
       <c r="A2297" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2297" s="2" t="s">
         <v>2299</v>
@@ -27863,7 +27860,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2298" customHeight="1" ht="19.5">
       <c r="A2298" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2298" s="2" t="s">
         <v>2300</v>
@@ -27871,7 +27868,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2299" customHeight="1" ht="19.5">
       <c r="A2299" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2299" s="2" t="s">
         <v>2301</v>
@@ -27879,7 +27876,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2300" customHeight="1" ht="19.5">
       <c r="A2300" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2300" s="2" t="s">
         <v>2302</v>
@@ -27887,7 +27884,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2301" customHeight="1" ht="19.5">
       <c r="A2301" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2301" s="2" t="s">
         <v>2303</v>
@@ -27895,7 +27892,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2302" customHeight="1" ht="19.5">
       <c r="A2302" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2302" s="2" t="s">
         <v>2304</v>
@@ -27903,7 +27900,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2303" customHeight="1" ht="19.5">
       <c r="A2303" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2303" s="2" t="s">
         <v>2305</v>
@@ -27911,7 +27908,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2304" customHeight="1" ht="19.5">
       <c r="A2304" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2304" s="2" t="s">
         <v>2306</v>
@@ -27919,7 +27916,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2305" customHeight="1" ht="19.5">
       <c r="A2305" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2305" s="2" t="s">
         <v>2307</v>
@@ -27927,7 +27924,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2306" customHeight="1" ht="19.5">
       <c r="A2306" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2306" s="2" t="s">
         <v>2308</v>
@@ -27935,7 +27932,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2307" customHeight="1" ht="19.5">
       <c r="A2307" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2307" s="2" t="s">
         <v>2309</v>
@@ -27951,7 +27948,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2309" customHeight="1" ht="19.5">
       <c r="A2309" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2309" s="2" t="s">
         <v>2311</v>
@@ -27959,29 +27956,29 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2310" customHeight="1" ht="19.5">
       <c r="A2310" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2310" s="2" t="s">
         <v>2312</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2311" customHeight="1" ht="19.5">
-      <c r="A2311" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2311" s="2"/>
       <c r="B2311" s="2" t="s">
         <v>2313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2312" customHeight="1" ht="19.5">
-      <c r="A2312" s="2"/>
+      <c r="A2312" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B2312" s="2" t="s">
         <v>2314</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2313" customHeight="1" ht="19.5">
       <c r="A2313" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2313" s="2" t="s">
         <v>2315</v>
@@ -27989,7 +27986,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2314" customHeight="1" ht="19.5">
       <c r="A2314" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2314" s="2" t="s">
         <v>2316</v>
@@ -27997,7 +27994,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2315" customHeight="1" ht="19.5">
       <c r="A2315" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2315" s="2" t="s">
         <v>2317</v>
@@ -28005,7 +28002,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2316" customHeight="1" ht="19.5">
       <c r="A2316" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2316" s="2" t="s">
         <v>2318</v>
@@ -28013,7 +28010,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2317" customHeight="1" ht="19.5">
       <c r="A2317" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2317" s="2" t="s">
         <v>2319</v>
@@ -28021,7 +28018,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2318" customHeight="1" ht="19.5">
       <c r="A2318" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2318" s="2" t="s">
         <v>2320</v>
@@ -28029,7 +28026,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2319" customHeight="1" ht="19.5">
       <c r="A2319" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2319" s="2" t="s">
         <v>2321</v>
@@ -28037,7 +28034,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2320" customHeight="1" ht="19.5">
       <c r="A2320" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2320" s="2" t="s">
         <v>2322</v>
@@ -28045,7 +28042,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2321" customHeight="1" ht="19.5">
       <c r="A2321" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2321" s="2" t="s">
         <v>2323</v>
@@ -28053,7 +28050,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2322" customHeight="1" ht="19.5">
       <c r="A2322" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2322" s="2" t="s">
         <v>2324</v>
@@ -28069,7 +28066,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2324" customHeight="1" ht="19.5">
       <c r="A2324" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2324" s="2" t="s">
         <v>2326</v>
@@ -28093,7 +28090,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2327" customHeight="1" ht="19.5">
       <c r="A2327" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2327" s="2" t="s">
         <v>2329</v>
@@ -28101,7 +28098,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2328" customHeight="1" ht="19.5">
       <c r="A2328" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2328" s="2" t="s">
         <v>2330</v>
@@ -28141,7 +28138,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2333" customHeight="1" ht="19.5">
       <c r="A2333" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2333" s="2" t="s">
         <v>2335</v>
@@ -28149,7 +28146,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2334" customHeight="1" ht="19.5">
       <c r="A2334" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2334" s="2" t="s">
         <v>2336</v>
@@ -28157,7 +28154,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2335" customHeight="1" ht="19.5">
       <c r="A2335" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2335" s="2" t="s">
         <v>2337</v>
@@ -28181,7 +28178,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2338" customHeight="1" ht="19.5">
       <c r="A2338" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2338" s="2" t="s">
         <v>2340</v>
@@ -28197,7 +28194,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2340" customHeight="1" ht="19.5">
       <c r="A2340" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2340" s="2" t="s">
         <v>2342</v>
@@ -28205,7 +28202,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2341" customHeight="1" ht="19.5">
       <c r="A2341" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2341" s="2" t="s">
         <v>2343</v>
@@ -28213,7 +28210,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2342" customHeight="1" ht="19.5">
       <c r="A2342" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2342" s="2" t="s">
         <v>2344</v>
@@ -28221,7 +28218,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2343" customHeight="1" ht="19.5">
       <c r="A2343" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2343" s="2" t="s">
         <v>2345</v>
@@ -28229,7 +28226,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2344" customHeight="1" ht="19.5">
       <c r="A2344" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2344" s="2" t="s">
         <v>2346</v>
@@ -28253,7 +28250,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2347" customHeight="1" ht="19.5">
       <c r="A2347" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2347" s="2" t="s">
         <v>2349</v>
@@ -28261,7 +28258,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2348" customHeight="1" ht="19.5">
       <c r="A2348" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2348" s="2" t="s">
         <v>2350</v>
@@ -28269,7 +28266,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2349" customHeight="1" ht="19.5">
       <c r="A2349" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2349" s="2" t="s">
         <v>2351</v>
@@ -28341,7 +28338,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2358" customHeight="1" ht="19.5">
       <c r="A2358" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2358" s="2" t="s">
         <v>2360</v>
@@ -28349,7 +28346,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2359" customHeight="1" ht="19.5">
       <c r="A2359" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2359" s="2" t="s">
         <v>2361</v>
@@ -28365,7 +28362,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2361" customHeight="1" ht="19.5">
       <c r="A2361" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2361" s="2" t="s">
         <v>2363</v>
@@ -28373,7 +28370,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2362" customHeight="1" ht="19.5">
       <c r="A2362" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2362" s="2" t="s">
         <v>2364</v>
@@ -28381,7 +28378,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2363" customHeight="1" ht="19.5">
       <c r="A2363" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2363" s="2" t="s">
         <v>2365</v>
@@ -28405,7 +28402,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2366" customHeight="1" ht="19.5">
       <c r="A2366" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2366" s="2" t="s">
         <v>2368</v>
@@ -28421,7 +28418,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2368" customHeight="1" ht="19.5">
       <c r="A2368" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2368" s="2" t="s">
         <v>2370</v>
@@ -28429,7 +28426,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2369" customHeight="1" ht="19.5">
       <c r="A2369" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2369" s="2" t="s">
         <v>2371</v>
@@ -28445,7 +28442,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2371" customHeight="1" ht="19.5">
       <c r="A2371" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2371" s="2" t="s">
         <v>2373</v>
@@ -28469,7 +28466,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2374" customHeight="1" ht="19.5">
       <c r="A2374" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2374" s="2" t="s">
         <v>2376</v>
@@ -28477,7 +28474,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2375" customHeight="1" ht="19.5">
       <c r="A2375" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2375" s="2" t="s">
         <v>2377</v>
@@ -28485,7 +28482,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2376" customHeight="1" ht="19.5">
       <c r="A2376" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2376" s="2" t="s">
         <v>2378</v>
@@ -28501,7 +28498,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2378" customHeight="1" ht="19.5">
       <c r="A2378" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2378" s="2" t="s">
         <v>2380</v>
@@ -28525,7 +28522,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2381" customHeight="1" ht="19.5">
       <c r="A2381" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2381" s="2" t="s">
         <v>2383</v>
@@ -28541,7 +28538,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2383" customHeight="1" ht="19.5">
       <c r="A2383" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2383" s="2" t="s">
         <v>2385</v>
@@ -28549,7 +28546,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2384" customHeight="1" ht="19.5">
       <c r="A2384" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2384" s="2" t="s">
         <v>2386</v>
@@ -28557,7 +28554,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2385" customHeight="1" ht="19.5">
       <c r="A2385" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2385" s="2" t="s">
         <v>2387</v>
@@ -28573,7 +28570,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2387" customHeight="1" ht="19.5">
       <c r="A2387" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2387" s="2" t="s">
         <v>2389</v>
@@ -28581,7 +28578,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2388" customHeight="1" ht="19.5">
       <c r="A2388" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2388" s="2" t="s">
         <v>2390</v>
@@ -28589,7 +28586,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2389" customHeight="1" ht="19.5">
       <c r="A2389" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2389" s="2" t="s">
         <v>2391</v>
@@ -28597,7 +28594,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2390" customHeight="1" ht="19.5">
       <c r="A2390" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2390" s="2" t="s">
         <v>2392</v>
@@ -28605,7 +28602,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2391" customHeight="1" ht="19.5">
       <c r="A2391" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2391" s="2" t="s">
         <v>2393</v>
@@ -28621,7 +28618,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2393" customHeight="1" ht="19.5">
       <c r="A2393" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2393" s="2" t="s">
         <v>2395</v>
@@ -28629,7 +28626,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2394" customHeight="1" ht="19.5">
       <c r="A2394" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2394" s="2" t="s">
         <v>2396</v>
@@ -28645,7 +28642,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2396" customHeight="1" ht="19.5">
       <c r="A2396" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2396" s="2" t="s">
         <v>2398</v>
@@ -28661,7 +28658,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2398" customHeight="1" ht="19.5">
       <c r="A2398" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2398" s="2" t="s">
         <v>2400</v>
@@ -28669,7 +28666,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2399" customHeight="1" ht="19.5">
       <c r="A2399" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2399" s="2" t="s">
         <v>2401</v>
@@ -28677,7 +28674,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2400" customHeight="1" ht="19.5">
       <c r="A2400" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2400" s="2" t="s">
         <v>2402</v>
@@ -28685,7 +28682,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2401" customHeight="1" ht="19.5">
       <c r="A2401" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2401" s="2" t="s">
         <v>2403</v>
@@ -28693,7 +28690,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2402" customHeight="1" ht="19.5">
       <c r="A2402" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2402" s="2" t="s">
         <v>2404</v>
@@ -28709,7 +28706,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2404" customHeight="1" ht="19.5">
       <c r="A2404" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2404" s="2" t="s">
         <v>2406</v>
@@ -28717,7 +28714,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2405" customHeight="1" ht="19.5">
       <c r="A2405" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2405" s="2" t="s">
         <v>2407</v>
@@ -28725,7 +28722,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2406" customHeight="1" ht="19.5">
       <c r="A2406" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2406" s="2" t="s">
         <v>2408</v>
@@ -28741,7 +28738,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2408" customHeight="1" ht="19.5">
       <c r="A2408" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2408" s="2" t="s">
         <v>2410</v>
@@ -28757,7 +28754,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2410" customHeight="1" ht="19.5">
       <c r="A2410" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2410" s="2" t="s">
         <v>2412</v>
@@ -28773,7 +28770,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2412" customHeight="1" ht="19.5">
       <c r="A2412" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2412" s="2" t="s">
         <v>2414</v>
@@ -28781,7 +28778,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2413" customHeight="1" ht="19.5">
       <c r="A2413" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2413" s="2" t="s">
         <v>2415</v>
@@ -28789,7 +28786,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2414" customHeight="1" ht="19.5">
       <c r="A2414" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2414" s="2" t="s">
         <v>2416</v>
@@ -28837,7 +28834,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2420" customHeight="1" ht="19.5">
       <c r="A2420" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2420" s="2" t="s">
         <v>2422</v>
@@ -28845,7 +28842,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2421" customHeight="1" ht="19.5">
       <c r="A2421" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2421" s="2" t="s">
         <v>2423</v>
@@ -28885,7 +28882,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2426" customHeight="1" ht="19.5">
       <c r="A2426" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2426" s="2" t="s">
         <v>2428</v>
@@ -28893,7 +28890,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2427" customHeight="1" ht="19.5">
       <c r="A2427" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2427" s="2" t="s">
         <v>2429</v>
@@ -28901,7 +28898,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2428" customHeight="1" ht="19.5">
       <c r="A2428" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2428" s="2" t="s">
         <v>2430</v>
@@ -28909,7 +28906,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2429" customHeight="1" ht="19.5">
       <c r="A2429" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2429" s="2" t="s">
         <v>2431</v>
@@ -28917,7 +28914,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2430" customHeight="1" ht="19.5">
       <c r="A2430" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2430" s="2" t="s">
         <v>2432</v>
@@ -28925,7 +28922,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2431" customHeight="1" ht="19.5">
       <c r="A2431" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2431" s="2" t="s">
         <v>2433</v>
@@ -28941,7 +28938,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2433" customHeight="1" ht="19.5">
       <c r="A2433" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2433" s="2" t="s">
         <v>2435</v>
@@ -28949,7 +28946,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2434" customHeight="1" ht="19.5">
       <c r="A2434" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2434" s="2" t="s">
         <v>2436</v>
@@ -28957,7 +28954,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2435" customHeight="1" ht="19.5">
       <c r="A2435" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2435" s="2" t="s">
         <v>2437</v>
@@ -28973,7 +28970,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2437" customHeight="1" ht="19.5">
       <c r="A2437" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2437" s="2" t="s">
         <v>2439</v>
@@ -28981,29 +28978,29 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2438" customHeight="1" ht="19.5">
       <c r="A2438" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2438" s="2" t="s">
         <v>2440</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2439" customHeight="1" ht="19.5">
-      <c r="A2439" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A2439" s="2"/>
       <c r="B2439" s="2" t="s">
         <v>2441</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2440" customHeight="1" ht="19.5">
-      <c r="A2440" s="2"/>
+      <c r="A2440" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B2440" s="2" t="s">
         <v>2442</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2441" customHeight="1" ht="19.5">
       <c r="A2441" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2441" s="2" t="s">
         <v>2443</v>
@@ -29011,7 +29008,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2442" customHeight="1" ht="19.5">
       <c r="A2442" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2442" s="2" t="s">
         <v>2444</v>
@@ -29019,7 +29016,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2443" customHeight="1" ht="19.5">
       <c r="A2443" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2443" s="2" t="s">
         <v>2445</v>
@@ -29027,7 +29024,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2444" customHeight="1" ht="19.5">
       <c r="A2444" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2444" s="2" t="s">
         <v>2446</v>
@@ -29035,7 +29032,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2445" customHeight="1" ht="19.5">
       <c r="A2445" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2445" s="2" t="s">
         <v>2447</v>
@@ -29051,7 +29048,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2447" customHeight="1" ht="19.5">
       <c r="A2447" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2447" s="2" t="s">
         <v>2449</v>
@@ -29059,7 +29056,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2448" customHeight="1" ht="19.5">
       <c r="A2448" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2448" s="2" t="s">
         <v>2450</v>
@@ -29091,7 +29088,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2452" customHeight="1" ht="19.5">
       <c r="A2452" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2452" s="2" t="s">
         <v>2454</v>
@@ -29099,7 +29096,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2453" customHeight="1" ht="19.5">
       <c r="A2453" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2453" s="2" t="s">
         <v>2455</v>
@@ -29123,7 +29120,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2456" customHeight="1" ht="19.5">
       <c r="A2456" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2456" s="2" t="s">
         <v>2458</v>
@@ -29131,7 +29128,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2457" customHeight="1" ht="19.5">
       <c r="A2457" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2457" s="2" t="s">
         <v>2459</v>
@@ -29139,7 +29136,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2458" customHeight="1" ht="19.5">
       <c r="A2458" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2458" s="2" t="s">
         <v>2460</v>
@@ -29147,7 +29144,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2459" customHeight="1" ht="19.5">
       <c r="A2459" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2459" s="2" t="s">
         <v>2461</v>
@@ -29163,7 +29160,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2461" customHeight="1" ht="19.5">
       <c r="A2461" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2461" s="2" t="s">
         <v>2463</v>
@@ -29171,7 +29168,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2462" customHeight="1" ht="19.5">
       <c r="A2462" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2462" s="2" t="s">
         <v>2464</v>
@@ -29179,7 +29176,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2463" customHeight="1" ht="19.5">
       <c r="A2463" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2463" s="2" t="s">
         <v>2465</v>
@@ -29187,7 +29184,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2464" customHeight="1" ht="19.5">
       <c r="A2464" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2464" s="2" t="s">
         <v>2466</v>
@@ -29195,7 +29192,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2465" customHeight="1" ht="19.5">
       <c r="A2465" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2465" s="2" t="s">
         <v>2467</v>
@@ -29211,7 +29208,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2467" customHeight="1" ht="19.5">
       <c r="A2467" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2467" s="2" t="s">
         <v>2469</v>
@@ -29219,7 +29216,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2468" customHeight="1" ht="19.5">
       <c r="A2468" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2468" s="2" t="s">
         <v>2470</v>
@@ -29227,7 +29224,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2469" customHeight="1" ht="19.5">
       <c r="A2469" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2469" s="2" t="s">
         <v>2471</v>
@@ -29235,7 +29232,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2470" customHeight="1" ht="19.5">
       <c r="A2470" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2470" s="2" t="s">
         <v>2472</v>
@@ -29243,7 +29240,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2471" customHeight="1" ht="19.5">
       <c r="A2471" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2471" s="2" t="s">
         <v>2473</v>
@@ -29251,7 +29248,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2472" customHeight="1" ht="19.5">
       <c r="A2472" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2472" s="2" t="s">
         <v>2474</v>
@@ -29267,7 +29264,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2474" customHeight="1" ht="19.5">
       <c r="A2474" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2474" s="2" t="s">
         <v>2476</v>
@@ -29291,7 +29288,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2477" customHeight="1" ht="19.5">
       <c r="A2477" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2477" s="2" t="s">
         <v>2479</v>
@@ -29299,7 +29296,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2478" customHeight="1" ht="19.5">
       <c r="A2478" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2478" s="2" t="s">
         <v>2480</v>
@@ -29307,7 +29304,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2479" customHeight="1" ht="19.5">
       <c r="A2479" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2479" s="2" t="s">
         <v>2481</v>
@@ -29315,7 +29312,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2480" customHeight="1" ht="19.5">
       <c r="A2480" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2480" s="2" t="s">
         <v>2482</v>
@@ -29331,7 +29328,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2482" customHeight="1" ht="19.5">
       <c r="A2482" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2482" s="2" t="s">
         <v>2484</v>
@@ -29339,7 +29336,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2483" customHeight="1" ht="19.5">
       <c r="A2483" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2483" s="2" t="s">
         <v>2485</v>
@@ -29347,7 +29344,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2484" customHeight="1" ht="19.5">
       <c r="A2484" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2484" s="2" t="s">
         <v>2486</v>
@@ -29355,7 +29352,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2485" customHeight="1" ht="19.5">
       <c r="A2485" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2485" s="2" t="s">
         <v>2487</v>
@@ -29363,7 +29360,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2486" customHeight="1" ht="19.5">
       <c r="A2486" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2486" s="2" t="s">
         <v>2488</v>
@@ -29371,7 +29368,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2487" customHeight="1" ht="19.5">
       <c r="A2487" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2487" s="2" t="s">
         <v>2489</v>
@@ -29379,7 +29376,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2488" customHeight="1" ht="19.5">
       <c r="A2488" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2488" s="2" t="s">
         <v>2490</v>
@@ -29443,7 +29440,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2496" customHeight="1" ht="19.5">
       <c r="A2496" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2496" s="2" t="s">
         <v>2498</v>
@@ -29451,7 +29448,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2497" customHeight="1" ht="19.5">
       <c r="A2497" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2497" s="2" t="s">
         <v>2499</v>
@@ -29459,7 +29456,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2498" customHeight="1" ht="19.5">
       <c r="A2498" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2498" s="2" t="s">
         <v>2500</v>
@@ -29483,7 +29480,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2501" customHeight="1" ht="19.5">
       <c r="A2501" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2501" s="2" t="s">
         <v>2503</v>
@@ -29491,7 +29488,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2502" customHeight="1" ht="19.5">
       <c r="A2502" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2502" s="2" t="s">
         <v>2504</v>
@@ -29499,7 +29496,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2503" customHeight="1" ht="19.5">
       <c r="A2503" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2503" s="2" t="s">
         <v>2505</v>
@@ -29507,7 +29504,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2504" customHeight="1" ht="19.5">
       <c r="A2504" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2504" s="2" t="s">
         <v>2506</v>
@@ -29515,7 +29512,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2505" customHeight="1" ht="19.5">
       <c r="A2505" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2505" s="2" t="s">
         <v>2507</v>
@@ -29523,7 +29520,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2506" customHeight="1" ht="19.5">
       <c r="A2506" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2506" s="2" t="s">
         <v>2508</v>
@@ -29531,7 +29528,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2507" customHeight="1" ht="19.5">
       <c r="A2507" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2507" s="2" t="s">
         <v>2509</v>
@@ -29547,7 +29544,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2509" customHeight="1" ht="19.5">
       <c r="A2509" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2509" s="2" t="s">
         <v>2511</v>
@@ -29555,7 +29552,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2510" customHeight="1" ht="19.5">
       <c r="A2510" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2510" s="2" t="s">
         <v>2512</v>
@@ -29571,7 +29568,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2512" customHeight="1" ht="19.5">
       <c r="A2512" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2512" s="2" t="s">
         <v>2514</v>
@@ -29579,7 +29576,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2513" customHeight="1" ht="19.5">
       <c r="A2513" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2513" s="2" t="s">
         <v>2515</v>
@@ -29587,7 +29584,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2514" customHeight="1" ht="19.5">
       <c r="A2514" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2514" s="2" t="s">
         <v>2516</v>
@@ -29595,7 +29592,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2515" customHeight="1" ht="19.5">
       <c r="A2515" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2515" s="2" t="s">
         <v>2517</v>
@@ -29603,7 +29600,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2516" customHeight="1" ht="19.5">
       <c r="A2516" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2516" s="2" t="s">
         <v>2518</v>
@@ -29611,7 +29608,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2517" customHeight="1" ht="19.5">
       <c r="A2517" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2517" s="2" t="s">
         <v>2519</v>
@@ -29619,7 +29616,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2518" customHeight="1" ht="19.5">
       <c r="A2518" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2518" s="2" t="s">
         <v>2520</v>
@@ -29627,7 +29624,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2519" customHeight="1" ht="19.5">
       <c r="A2519" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2519" s="2" t="s">
         <v>2521</v>
@@ -29635,7 +29632,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2520" customHeight="1" ht="19.5">
       <c r="A2520" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2520" s="2" t="s">
         <v>2522</v>
@@ -29643,7 +29640,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2521" customHeight="1" ht="19.5">
       <c r="A2521" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2521" s="2" t="s">
         <v>2523</v>
@@ -29651,7 +29648,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2522" customHeight="1" ht="19.5">
       <c r="A2522" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2522" s="2" t="s">
         <v>2524</v>
@@ -29683,7 +29680,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2526" customHeight="1" ht="19.5">
       <c r="A2526" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2526" s="2" t="s">
         <v>2528</v>
@@ -29699,7 +29696,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2528" customHeight="1" ht="19.5">
       <c r="A2528" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2528" s="2" t="s">
         <v>2530</v>
@@ -29707,7 +29704,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2529" customHeight="1" ht="19.5">
       <c r="A2529" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2529" s="2" t="s">
         <v>2531</v>
@@ -29723,7 +29720,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2531" customHeight="1" ht="19.5">
       <c r="A2531" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2531" s="2" t="s">
         <v>2533</v>
@@ -29731,7 +29728,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2532" customHeight="1" ht="19.5">
       <c r="A2532" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2532" s="2" t="s">
         <v>2534</v>
@@ -29747,7 +29744,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2534" customHeight="1" ht="19.5">
       <c r="A2534" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2534" s="2" t="s">
         <v>2536</v>
@@ -29755,7 +29752,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2535" customHeight="1" ht="19.5">
       <c r="A2535" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2535" s="2" t="s">
         <v>2537</v>
@@ -29763,7 +29760,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2536" customHeight="1" ht="19.5">
       <c r="A2536" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2536" s="2" t="s">
         <v>2538</v>
@@ -29771,7 +29768,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2537" customHeight="1" ht="19.5">
       <c r="A2537" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2537" s="2" t="s">
         <v>2539</v>
@@ -29779,7 +29776,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2538" customHeight="1" ht="19.5">
       <c r="A2538" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2538" s="2" t="s">
         <v>2540</v>
@@ -29787,7 +29784,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2539" customHeight="1" ht="19.5">
       <c r="A2539" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2539" s="2" t="s">
         <v>2541</v>
@@ -29795,7 +29792,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2540" customHeight="1" ht="19.5">
       <c r="A2540" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2540" s="2" t="s">
         <v>2542</v>
@@ -29803,7 +29800,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2541" customHeight="1" ht="19.5">
       <c r="A2541" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2541" s="2" t="s">
         <v>2543</v>
@@ -29811,7 +29808,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2542" customHeight="1" ht="19.5">
       <c r="A2542" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2542" s="2" t="s">
         <v>2544</v>
@@ -29819,7 +29816,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2543" customHeight="1" ht="19.5">
       <c r="A2543" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2543" s="2" t="s">
         <v>2545</v>
@@ -29835,7 +29832,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2545" customHeight="1" ht="19.5">
       <c r="A2545" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2545" s="2" t="s">
         <v>2547</v>
@@ -29843,7 +29840,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2546" customHeight="1" ht="19.5">
       <c r="A2546" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2546" s="2" t="s">
         <v>2548</v>
@@ -29851,7 +29848,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2547" customHeight="1" ht="19.5">
       <c r="A2547" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2547" s="2" t="s">
         <v>2549</v>
@@ -29859,7 +29856,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2548" customHeight="1" ht="19.5">
       <c r="A2548" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2548" s="2" t="s">
         <v>2550</v>
@@ -29883,7 +29880,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2551" customHeight="1" ht="19.5">
       <c r="A2551" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2551" s="2" t="s">
         <v>2553</v>
@@ -29906,15 +29903,15 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2554" customHeight="1" ht="19.5">
-      <c r="A2554" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A2554" s="2"/>
       <c r="B2554" s="2" t="s">
         <v>2556</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2555" customHeight="1" ht="19.5">
-      <c r="A2555" s="2"/>
+      <c r="A2555" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2555" s="2" t="s">
         <v>2557</v>
       </c>
@@ -29929,7 +29926,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2557" customHeight="1" ht="19.5">
       <c r="A2557" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2557" s="2" t="s">
         <v>2559</v>
@@ -29937,7 +29934,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2558" customHeight="1" ht="19.5">
       <c r="A2558" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2558" s="2" t="s">
         <v>2560</v>
@@ -29945,7 +29942,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2559" customHeight="1" ht="19.5">
       <c r="A2559" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2559" s="2" t="s">
         <v>2561</v>
@@ -29953,7 +29950,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2560" customHeight="1" ht="19.5">
       <c r="A2560" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2560" s="2" t="s">
         <v>2562</v>
@@ -29961,7 +29958,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2561" customHeight="1" ht="19.5">
       <c r="A2561" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2561" s="2" t="s">
         <v>2563</v>
@@ -29977,7 +29974,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2563" customHeight="1" ht="19.5">
       <c r="A2563" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2563" s="2" t="s">
         <v>2565</v>
@@ -30001,7 +29998,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2566" customHeight="1" ht="19.5">
       <c r="A2566" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2566" s="2" t="s">
         <v>2568</v>
@@ -30009,7 +30006,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2567" customHeight="1" ht="19.5">
       <c r="A2567" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2567" s="2" t="s">
         <v>2569</v>
@@ -30017,7 +30014,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2568" customHeight="1" ht="19.5">
       <c r="A2568" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2568" s="2" t="s">
         <v>2570</v>
@@ -30025,7 +30022,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2569" customHeight="1" ht="19.5">
       <c r="A2569" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2569" s="2" t="s">
         <v>2571</v>
@@ -30049,7 +30046,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2572" customHeight="1" ht="19.5">
       <c r="A2572" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2572" s="2" t="s">
         <v>2574</v>
@@ -30057,29 +30054,29 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2573" customHeight="1" ht="19.5">
       <c r="A2573" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2573" s="2" t="s">
         <v>2575</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2574" customHeight="1" ht="19.5">
-      <c r="A2574" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2574" s="2"/>
       <c r="B2574" s="2" t="s">
         <v>2576</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2575" customHeight="1" ht="19.5">
-      <c r="A2575" s="2"/>
+      <c r="A2575" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2575" s="2" t="s">
         <v>2577</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2576" customHeight="1" ht="19.5">
       <c r="A2576" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2576" s="2" t="s">
         <v>2578</v>
@@ -30087,7 +30084,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2577" customHeight="1" ht="19.5">
       <c r="A2577" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2577" s="2" t="s">
         <v>2579</v>
@@ -30095,7 +30092,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2578" customHeight="1" ht="19.5">
       <c r="A2578" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2578" s="2" t="s">
         <v>2580</v>
@@ -30111,7 +30108,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2580" customHeight="1" ht="19.5">
       <c r="A2580" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2580" s="2" t="s">
         <v>2582</v>
@@ -30119,7 +30116,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2581" customHeight="1" ht="19.5">
       <c r="A2581" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2581" s="2" t="s">
         <v>2583</v>
@@ -30135,7 +30132,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2583" customHeight="1" ht="19.5">
       <c r="A2583" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2583" s="2" t="s">
         <v>2585</v>
@@ -30151,7 +30148,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2585" customHeight="1" ht="19.5">
       <c r="A2585" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2585" s="2" t="s">
         <v>2587</v>
@@ -30159,7 +30156,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2586" customHeight="1" ht="19.5">
       <c r="A2586" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2586" s="2" t="s">
         <v>2588</v>
@@ -30175,7 +30172,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2588" customHeight="1" ht="19.5">
       <c r="A2588" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2588" s="2" t="s">
         <v>2590</v>
@@ -30183,7 +30180,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2589" customHeight="1" ht="19.5">
       <c r="A2589" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2589" s="2" t="s">
         <v>2591</v>
@@ -30199,7 +30196,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2591" customHeight="1" ht="19.5">
       <c r="A2591" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2591" s="2" t="s">
         <v>2593</v>
@@ -30207,7 +30204,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2592" customHeight="1" ht="19.5">
       <c r="A2592" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2592" s="2" t="s">
         <v>2594</v>
@@ -30215,7 +30212,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2593" customHeight="1" ht="19.5">
       <c r="A2593" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2593" s="2" t="s">
         <v>2595</v>
@@ -30231,7 +30228,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2595" customHeight="1" ht="19.5">
       <c r="A2595" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2595" s="2" t="s">
         <v>2597</v>
@@ -30239,7 +30236,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2596" customHeight="1" ht="19.5">
       <c r="A2596" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2596" s="2" t="s">
         <v>2598</v>
@@ -30263,7 +30260,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2599" customHeight="1" ht="19.5">
       <c r="A2599" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2599" s="2" t="s">
         <v>2601</v>
@@ -30271,7 +30268,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2600" customHeight="1" ht="19.5">
       <c r="A2600" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2600" s="2" t="s">
         <v>2602</v>
@@ -30279,7 +30276,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2601" customHeight="1" ht="19.5">
       <c r="A2601" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2601" s="2" t="s">
         <v>2603</v>
@@ -30287,7 +30284,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2602" customHeight="1" ht="19.5">
       <c r="A2602" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2602" s="2" t="s">
         <v>2604</v>
@@ -30295,7 +30292,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2603" customHeight="1" ht="19.5">
       <c r="A2603" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2603" s="2" t="s">
         <v>2605</v>
@@ -30303,7 +30300,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2604" customHeight="1" ht="19.5">
       <c r="A2604" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2604" s="2" t="s">
         <v>2606</v>
@@ -30319,7 +30316,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2606" customHeight="1" ht="19.5">
       <c r="A2606" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2606" s="2" t="s">
         <v>2608</v>
@@ -30327,7 +30324,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2607" customHeight="1" ht="19.5">
       <c r="A2607" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2607" s="2" t="s">
         <v>2609</v>
@@ -30335,7 +30332,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2608" customHeight="1" ht="19.5">
       <c r="A2608" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2608" s="2" t="s">
         <v>2610</v>
@@ -30343,7 +30340,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2609" customHeight="1" ht="19.5">
       <c r="A2609" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2609" s="2" t="s">
         <v>2611</v>
@@ -30351,7 +30348,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2610" customHeight="1" ht="19.5">
       <c r="A2610" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2610" s="2" t="s">
         <v>2612</v>
@@ -30359,7 +30356,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2611" customHeight="1" ht="19.5">
       <c r="A2611" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2611" s="2" t="s">
         <v>2613</v>
@@ -30375,7 +30372,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2613" customHeight="1" ht="19.5">
       <c r="A2613" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2613" s="2" t="s">
         <v>2615</v>
@@ -30383,7 +30380,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2614" customHeight="1" ht="19.5">
       <c r="A2614" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2614" s="2" t="s">
         <v>2616</v>
@@ -30398,15 +30395,15 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2616" customHeight="1" ht="19.5">
-      <c r="A2616" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A2616" s="2"/>
       <c r="B2616" s="2" t="s">
         <v>2618</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2617" customHeight="1" ht="19.5">
-      <c r="A2617" s="2"/>
+      <c r="A2617" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B2617" s="2" t="s">
         <v>2619</v>
       </c>
@@ -30421,7 +30418,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2619" customHeight="1" ht="19.5">
       <c r="A2619" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2619" s="2" t="s">
         <v>2621</v>
@@ -30429,7 +30426,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2620" customHeight="1" ht="19.5">
       <c r="A2620" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2620" s="2" t="s">
         <v>2622</v>
@@ -30437,7 +30434,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2621" customHeight="1" ht="19.5">
       <c r="A2621" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2621" s="2" t="s">
         <v>2623</v>
@@ -30445,7 +30442,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2622" customHeight="1" ht="19.5">
       <c r="A2622" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2622" s="2" t="s">
         <v>2624</v>
@@ -30453,7 +30450,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2623" customHeight="1" ht="19.5">
       <c r="A2623" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2623" s="2" t="s">
         <v>2625</v>
@@ -30461,7 +30458,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2624" customHeight="1" ht="19.5">
       <c r="A2624" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2624" s="2" t="s">
         <v>2626</v>
@@ -30493,7 +30490,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2628" customHeight="1" ht="19.5">
       <c r="A2628" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2628" s="2" t="s">
         <v>2630</v>
@@ -30501,7 +30498,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2629" customHeight="1" ht="19.5">
       <c r="A2629" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2629" s="2" t="s">
         <v>2631</v>
@@ -30517,7 +30514,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2631" customHeight="1" ht="19.5">
       <c r="A2631" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2631" s="2" t="s">
         <v>2633</v>
@@ -30533,7 +30530,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2633" customHeight="1" ht="19.5">
       <c r="A2633" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2633" s="2" t="s">
         <v>2635</v>
@@ -30549,7 +30546,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2635" customHeight="1" ht="19.5">
       <c r="A2635" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2635" s="2" t="s">
         <v>2637</v>
@@ -30565,7 +30562,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2637" customHeight="1" ht="19.5">
       <c r="A2637" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2637" s="2" t="s">
         <v>2639</v>
@@ -30573,7 +30570,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2638" customHeight="1" ht="19.5">
       <c r="A2638" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2638" s="2" t="s">
         <v>2640</v>
@@ -30581,7 +30578,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2639" customHeight="1" ht="19.5">
       <c r="A2639" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2639" s="2" t="s">
         <v>2641</v>
@@ -30589,7 +30586,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2640" customHeight="1" ht="19.5">
       <c r="A2640" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2640" s="2" t="s">
         <v>2642</v>
@@ -30597,7 +30594,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2641" customHeight="1" ht="19.5">
       <c r="A2641" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2641" s="2" t="s">
         <v>2643</v>
@@ -30613,7 +30610,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2643" customHeight="1" ht="19.5">
       <c r="A2643" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2643" s="2" t="s">
         <v>2645</v>
@@ -30629,7 +30626,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2645" customHeight="1" ht="19.5">
       <c r="A2645" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2645" s="2" t="s">
         <v>2647</v>
@@ -30645,7 +30642,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2647" customHeight="1" ht="19.5">
       <c r="A2647" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2647" s="2" t="s">
         <v>2649</v>
@@ -30653,7 +30650,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2648" customHeight="1" ht="19.5">
       <c r="A2648" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2648" s="2" t="s">
         <v>2650</v>
@@ -30661,7 +30658,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2649" customHeight="1" ht="19.5">
       <c r="A2649" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2649" s="2" t="s">
         <v>2651</v>
@@ -30669,7 +30666,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2650" customHeight="1" ht="19.5">
       <c r="A2650" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2650" s="2" t="s">
         <v>2652</v>
@@ -30677,7 +30674,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2651" customHeight="1" ht="19.5">
       <c r="A2651" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2651" s="2" t="s">
         <v>2653</v>
@@ -30685,7 +30682,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2652" customHeight="1" ht="19.5">
       <c r="A2652" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2652" s="2" t="s">
         <v>2654</v>
@@ -30693,7 +30690,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2653" customHeight="1" ht="19.5">
       <c r="A2653" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2653" s="2" t="s">
         <v>2655</v>
@@ -30701,7 +30698,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2654" customHeight="1" ht="19.5">
       <c r="A2654" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2654" s="2" t="s">
         <v>2656</v>
@@ -30717,7 +30714,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2656" customHeight="1" ht="19.5">
       <c r="A2656" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2656" s="2" t="s">
         <v>2658</v>
@@ -30725,7 +30722,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2657" customHeight="1" ht="19.5">
       <c r="A2657" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2657" s="2" t="s">
         <v>2659</v>
@@ -30733,7 +30730,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2658" customHeight="1" ht="19.5">
       <c r="A2658" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2658" s="2" t="s">
         <v>2660</v>
@@ -30741,7 +30738,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2659" customHeight="1" ht="19.5">
       <c r="A2659" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2659" s="2" t="s">
         <v>2661</v>
@@ -30749,7 +30746,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2660" customHeight="1" ht="19.5">
       <c r="A2660" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2660" s="2" t="s">
         <v>2662</v>
@@ -30757,7 +30754,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2661" customHeight="1" ht="19.5">
       <c r="A2661" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2661" s="2" t="s">
         <v>2663</v>
@@ -30765,7 +30762,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2662" customHeight="1" ht="19.5">
       <c r="A2662" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2662" s="2" t="s">
         <v>2664</v>
@@ -30773,7 +30770,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2663" customHeight="1" ht="19.5">
       <c r="A2663" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2663" s="2" t="s">
         <v>2665</v>
@@ -30781,7 +30778,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2664" customHeight="1" ht="19.5">
       <c r="A2664" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2664" s="2" t="s">
         <v>2666</v>
@@ -30797,7 +30794,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2666" customHeight="1" ht="19.5">
       <c r="A2666" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2666" s="2" t="s">
         <v>2668</v>
@@ -30805,7 +30802,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2667" customHeight="1" ht="19.5">
       <c r="A2667" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2667" s="2" t="s">
         <v>2669</v>
@@ -30813,7 +30810,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2668" customHeight="1" ht="19.5">
       <c r="A2668" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2668" s="2" t="s">
         <v>2670</v>
@@ -30821,7 +30818,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2669" customHeight="1" ht="19.5">
       <c r="A2669" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2669" s="2" t="s">
         <v>2671</v>
@@ -30829,7 +30826,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2670" customHeight="1" ht="19.5">
       <c r="A2670" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2670" s="2" t="s">
         <v>2672</v>
@@ -30845,7 +30842,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2672" customHeight="1" ht="19.5">
       <c r="A2672" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2672" s="2" t="s">
         <v>2674</v>
@@ -30853,7 +30850,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2673" customHeight="1" ht="19.5">
       <c r="A2673" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2673" s="2" t="s">
         <v>2675</v>
@@ -30861,7 +30858,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2674" customHeight="1" ht="19.5">
       <c r="A2674" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2674" s="2" t="s">
         <v>2676</v>
@@ -30869,7 +30866,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2675" customHeight="1" ht="19.5">
       <c r="A2675" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2675" s="2" t="s">
         <v>2677</v>
@@ -30877,7 +30874,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2676" customHeight="1" ht="19.5">
       <c r="A2676" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2676" s="2" t="s">
         <v>2678</v>
@@ -30885,7 +30882,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2677" customHeight="1" ht="19.5">
       <c r="A2677" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2677" s="2" t="s">
         <v>2679</v>
@@ -30893,7 +30890,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2678" customHeight="1" ht="19.5">
       <c r="A2678" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2678" s="2" t="s">
         <v>2680</v>
@@ -30901,7 +30898,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2679" customHeight="1" ht="19.5">
       <c r="A2679" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2679" s="2" t="s">
         <v>2681</v>
@@ -30909,7 +30906,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2680" customHeight="1" ht="19.5">
       <c r="A2680" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2680" s="2" t="s">
         <v>2682</v>
@@ -30917,7 +30914,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2681" customHeight="1" ht="19.5">
       <c r="A2681" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2681" s="2" t="s">
         <v>2683</v>
@@ -30925,7 +30922,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2682" customHeight="1" ht="19.5">
       <c r="A2682" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2682" s="2" t="s">
         <v>2684</v>
@@ -30941,7 +30938,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2684" customHeight="1" ht="19.5">
       <c r="A2684" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2684" s="2" t="s">
         <v>2686</v>
@@ -30949,7 +30946,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2685" customHeight="1" ht="19.5">
       <c r="A2685" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2685" s="2" t="s">
         <v>2687</v>
@@ -30965,7 +30962,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2687" customHeight="1" ht="19.5">
       <c r="A2687" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2687" s="2" t="s">
         <v>2689</v>
@@ -30997,7 +30994,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2691" customHeight="1" ht="19.5">
       <c r="A2691" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2691" s="2" t="s">
         <v>2693</v>
@@ -31005,7 +31002,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2692" customHeight="1" ht="19.5">
       <c r="A2692" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2692" s="2" t="s">
         <v>2694</v>
@@ -31013,7 +31010,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2693" customHeight="1" ht="19.5">
       <c r="A2693" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2693" s="2" t="s">
         <v>2695</v>
@@ -31021,7 +31018,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2694" customHeight="1" ht="19.5">
       <c r="A2694" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2694" s="2" t="s">
         <v>2696</v>
@@ -31029,7 +31026,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2695" customHeight="1" ht="19.5">
       <c r="A2695" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2695" s="2" t="s">
         <v>2697</v>
@@ -31037,7 +31034,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2696" customHeight="1" ht="19.5">
       <c r="A2696" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2696" s="2" t="s">
         <v>2698</v>
@@ -31053,7 +31050,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2698" customHeight="1" ht="19.5">
       <c r="A2698" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2698" s="2" t="s">
         <v>2700</v>
@@ -31061,7 +31058,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2699" customHeight="1" ht="19.5">
       <c r="A2699" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2699" s="2" t="s">
         <v>2701</v>
@@ -31069,7 +31066,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2700" customHeight="1" ht="19.5">
       <c r="A2700" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2700" s="2" t="s">
         <v>2702</v>
@@ -31077,7 +31074,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2701" customHeight="1" ht="19.5">
       <c r="A2701" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2701" s="2" t="s">
         <v>2703</v>
@@ -31149,7 +31146,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2710" customHeight="1" ht="19.5">
       <c r="A2710" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2710" s="2" t="s">
         <v>2712</v>
@@ -31157,7 +31154,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2711" customHeight="1" ht="19.5">
       <c r="A2711" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2711" s="2" t="s">
         <v>2713</v>
@@ -31165,7 +31162,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2712" customHeight="1" ht="19.5">
       <c r="A2712" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2712" s="2" t="s">
         <v>2714</v>
@@ -31181,7 +31178,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2714" customHeight="1" ht="19.5">
       <c r="A2714" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2714" s="2" t="s">
         <v>2716</v>
@@ -31189,7 +31186,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2715" customHeight="1" ht="19.5">
       <c r="A2715" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2715" s="2" t="s">
         <v>2717</v>
@@ -31197,7 +31194,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2716" customHeight="1" ht="19.5">
       <c r="A2716" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2716" s="2" t="s">
         <v>2718</v>
@@ -31205,7 +31202,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2717" customHeight="1" ht="19.5">
       <c r="A2717" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2717" s="2" t="s">
         <v>2719</v>
@@ -31213,7 +31210,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2718" customHeight="1" ht="19.5">
       <c r="A2718" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2718" s="2" t="s">
         <v>2720</v>
@@ -31221,7 +31218,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2719" customHeight="1" ht="19.5">
       <c r="A2719" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2719" s="2" t="s">
         <v>2721</v>
@@ -31229,7 +31226,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2720" customHeight="1" ht="19.5">
       <c r="A2720" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2720" s="2" t="s">
         <v>2722</v>
@@ -31237,7 +31234,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2721" customHeight="1" ht="19.5">
       <c r="A2721" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2721" s="2" t="s">
         <v>2723</v>
@@ -31245,7 +31242,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2722" customHeight="1" ht="19.5">
       <c r="A2722" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2722" s="2" t="s">
         <v>2724</v>
@@ -31253,7 +31250,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2723" customHeight="1" ht="19.5">
       <c r="A2723" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2723" s="2" t="s">
         <v>2725</v>
@@ -31261,7 +31258,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2724" customHeight="1" ht="19.5">
       <c r="A2724" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2724" s="2" t="s">
         <v>2726</v>
@@ -31285,7 +31282,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2727" customHeight="1" ht="19.5">
       <c r="A2727" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2727" s="2" t="s">
         <v>2729</v>
@@ -31293,7 +31290,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2728" customHeight="1" ht="19.5">
       <c r="A2728" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2728" s="2" t="s">
         <v>2730</v>
@@ -31301,7 +31298,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2729" customHeight="1" ht="19.5">
       <c r="A2729" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2729" s="2" t="s">
         <v>2731</v>
@@ -31309,7 +31306,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2730" customHeight="1" ht="19.5">
       <c r="A2730" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2730" s="2" t="s">
         <v>2732</v>
@@ -31317,7 +31314,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2731" customHeight="1" ht="19.5">
       <c r="A2731" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2731" s="2" t="s">
         <v>2733</v>
@@ -31341,7 +31338,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2734" customHeight="1" ht="19.5">
       <c r="A2734" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2734" s="2" t="s">
         <v>2736</v>
@@ -31349,7 +31346,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2735" customHeight="1" ht="19.5">
       <c r="A2735" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2735" s="2" t="s">
         <v>2737</v>
@@ -31357,7 +31354,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2736" customHeight="1" ht="19.5">
       <c r="A2736" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2736" s="2" t="s">
         <v>2738</v>
@@ -31365,7 +31362,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2737" customHeight="1" ht="19.5">
       <c r="A2737" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2737" s="2" t="s">
         <v>2739</v>
@@ -31373,7 +31370,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2738" customHeight="1" ht="19.5">
       <c r="A2738" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2738" s="2" t="s">
         <v>2740</v>
@@ -31381,7 +31378,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2739" customHeight="1" ht="19.5">
       <c r="A2739" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2739" s="2" t="s">
         <v>2741</v>
@@ -31397,7 +31394,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2741" customHeight="1" ht="19.5">
       <c r="A2741" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2741" s="2" t="s">
         <v>2743</v>
@@ -31405,7 +31402,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2742" customHeight="1" ht="19.5">
       <c r="A2742" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2742" s="2" t="s">
         <v>2744</v>
@@ -31413,7 +31410,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2743" customHeight="1" ht="19.5">
       <c r="A2743" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2743" s="2" t="s">
         <v>2745</v>
@@ -31421,7 +31418,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2744" customHeight="1" ht="19.5">
       <c r="A2744" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2744" s="2" t="s">
         <v>2746</v>
@@ -31429,7 +31426,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2745" customHeight="1" ht="19.5">
       <c r="A2745" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2745" s="2" t="s">
         <v>2747</v>
@@ -31445,7 +31442,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2747" customHeight="1" ht="19.5">
       <c r="A2747" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2747" s="2" t="s">
         <v>2749</v>
@@ -31453,7 +31450,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2748" customHeight="1" ht="19.5">
       <c r="A2748" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2748" s="2" t="s">
         <v>2750</v>
@@ -31469,7 +31466,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2750" customHeight="1" ht="19.5">
       <c r="A2750" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2750" s="2" t="s">
         <v>2752</v>
@@ -31501,7 +31498,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2754" customHeight="1" ht="19.5">
       <c r="A2754" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2754" s="2" t="s">
         <v>2756</v>
@@ -31509,7 +31506,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2755" customHeight="1" ht="19.5">
       <c r="A2755" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2755" s="2" t="s">
         <v>2757</v>
@@ -31517,7 +31514,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2756" customHeight="1" ht="19.5">
       <c r="A2756" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2756" s="2" t="s">
         <v>2758</v>
@@ -31525,7 +31522,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2757" customHeight="1" ht="19.5">
       <c r="A2757" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2757" s="2" t="s">
         <v>2759</v>
@@ -31533,7 +31530,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2758" customHeight="1" ht="19.5">
       <c r="A2758" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2758" s="2" t="s">
         <v>2760</v>
@@ -31541,7 +31538,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2759" customHeight="1" ht="19.5">
       <c r="A2759" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2759" s="2" t="s">
         <v>2761</v>
@@ -31557,7 +31554,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2761" customHeight="1" ht="19.5">
       <c r="A2761" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2761" s="2" t="s">
         <v>2763</v>
@@ -31565,7 +31562,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2762" customHeight="1" ht="19.5">
       <c r="A2762" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2762" s="2" t="s">
         <v>2764</v>
@@ -31613,7 +31610,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2768" customHeight="1" ht="19.5">
       <c r="A2768" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2768" s="2" t="s">
         <v>2770</v>
@@ -31621,7 +31618,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2769" customHeight="1" ht="19.5">
       <c r="A2769" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2769" s="2" t="s">
         <v>2771</v>
@@ -31629,7 +31626,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2770" customHeight="1" ht="19.5">
       <c r="A2770" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2770" s="2" t="s">
         <v>2772</v>
@@ -31637,7 +31634,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2771" customHeight="1" ht="19.5">
       <c r="A2771" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2771" s="2" t="s">
         <v>2773</v>
@@ -31661,7 +31658,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2774" customHeight="1" ht="19.5">
       <c r="A2774" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2774" s="2" t="s">
         <v>2776</v>
@@ -31677,7 +31674,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2776" customHeight="1" ht="19.5">
       <c r="A2776" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2776" s="2" t="s">
         <v>2778</v>
@@ -31685,7 +31682,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2777" customHeight="1" ht="19.5">
       <c r="A2777" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2777" s="2" t="s">
         <v>2779</v>
@@ -31693,7 +31690,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2778" customHeight="1" ht="19.5">
       <c r="A2778" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2778" s="2" t="s">
         <v>2780</v>
@@ -31701,7 +31698,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2779" customHeight="1" ht="19.5">
       <c r="A2779" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2779" s="2" t="s">
         <v>2781</v>
@@ -31709,7 +31706,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2780" customHeight="1" ht="19.5">
       <c r="A2780" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2780" s="2" t="s">
         <v>2782</v>
@@ -31717,7 +31714,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2781" customHeight="1" ht="19.5">
       <c r="A2781" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2781" s="2" t="s">
         <v>2783</v>
@@ -31733,7 +31730,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2783" customHeight="1" ht="19.5">
       <c r="A2783" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2783" s="2" t="s">
         <v>2785</v>
@@ -31749,7 +31746,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2785" customHeight="1" ht="19.5">
       <c r="A2785" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2785" s="2" t="s">
         <v>2787</v>
@@ -31757,7 +31754,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2786" customHeight="1" ht="19.5">
       <c r="A2786" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2786" s="2" t="s">
         <v>2788</v>
@@ -31765,7 +31762,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2787" customHeight="1" ht="19.5">
       <c r="A2787" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2787" s="2" t="s">
         <v>2789</v>
@@ -31773,7 +31770,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2788" customHeight="1" ht="19.5">
       <c r="A2788" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2788" s="2" t="s">
         <v>2790</v>
@@ -31789,7 +31786,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2790" customHeight="1" ht="19.5">
       <c r="A2790" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2790" s="2" t="s">
         <v>2792</v>
@@ -31845,7 +31842,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2797" customHeight="1" ht="19.5">
       <c r="A2797" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2797" s="2" t="s">
         <v>2799</v>
@@ -31853,7 +31850,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2798" customHeight="1" ht="19.5">
       <c r="A2798" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2798" s="2" t="s">
         <v>2800</v>
@@ -31861,7 +31858,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2799" customHeight="1" ht="19.5">
       <c r="A2799" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2799" s="2" t="s">
         <v>2801</v>
@@ -31869,7 +31866,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2800" customHeight="1" ht="19.5">
       <c r="A2800" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2800" s="2" t="s">
         <v>2802</v>
@@ -31885,7 +31882,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2802" customHeight="1" ht="19.5">
       <c r="A2802" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2802" s="2" t="s">
         <v>2804</v>
@@ -31893,7 +31890,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2803" customHeight="1" ht="19.5">
       <c r="A2803" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2803" s="2" t="s">
         <v>2805</v>
@@ -31901,7 +31898,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2804" customHeight="1" ht="19.5">
       <c r="A2804" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2804" s="2" t="s">
         <v>2806</v>
@@ -31909,7 +31906,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2805" customHeight="1" ht="19.5">
       <c r="A2805" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2805" s="2" t="s">
         <v>2807</v>
@@ -31917,7 +31914,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2806" customHeight="1" ht="19.5">
       <c r="A2806" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2806" s="2" t="s">
         <v>2808</v>
@@ -31925,7 +31922,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2807" customHeight="1" ht="19.5">
       <c r="A2807" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2807" s="2" t="s">
         <v>2809</v>
@@ -31933,7 +31930,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2808" customHeight="1" ht="19.5">
       <c r="A2808" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2808" s="2" t="s">
         <v>2810</v>
@@ -31949,7 +31946,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2810" customHeight="1" ht="19.5">
       <c r="A2810" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2810" s="2" t="s">
         <v>2812</v>
@@ -31957,7 +31954,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2811" customHeight="1" ht="19.5">
       <c r="A2811" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2811" s="2" t="s">
         <v>2813</v>
@@ -31965,7 +31962,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2812" customHeight="1" ht="19.5">
       <c r="A2812" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2812" s="2" t="s">
         <v>2814</v>
@@ -31973,7 +31970,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2813" customHeight="1" ht="19.5">
       <c r="A2813" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2813" s="2" t="s">
         <v>2815</v>
@@ -31981,7 +31978,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2814" customHeight="1" ht="19.5">
       <c r="A2814" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2814" s="2" t="s">
         <v>2816</v>
@@ -31989,7 +31986,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2815" customHeight="1" ht="19.5">
       <c r="A2815" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2815" s="2" t="s">
         <v>2817</v>
@@ -31997,7 +31994,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2816" customHeight="1" ht="19.5">
       <c r="A2816" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2816" s="2" t="s">
         <v>2818</v>
@@ -32005,7 +32002,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2817" customHeight="1" ht="19.5">
       <c r="A2817" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2817" s="2" t="s">
         <v>2819</v>
@@ -32013,7 +32010,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2818" customHeight="1" ht="19.5">
       <c r="A2818" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2818" s="2" t="s">
         <v>2820</v>
@@ -32021,7 +32018,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2819" customHeight="1" ht="19.5">
       <c r="A2819" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2819" s="2" t="s">
         <v>2821</v>
@@ -32029,7 +32026,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2820" customHeight="1" ht="19.5">
       <c r="A2820" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2820" s="2" t="s">
         <v>2822</v>
@@ -32037,7 +32034,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2821" customHeight="1" ht="19.5">
       <c r="A2821" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2821" s="2" t="s">
         <v>2823</v>
@@ -32045,7 +32042,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2822" customHeight="1" ht="19.5">
       <c r="A2822" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2822" s="2" t="s">
         <v>2824</v>
@@ -32053,7 +32050,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2823" customHeight="1" ht="19.5">
       <c r="A2823" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2823" s="2" t="s">
         <v>2825</v>
@@ -32061,7 +32058,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2824" customHeight="1" ht="19.5">
       <c r="A2824" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2824" s="2" t="s">
         <v>2826</v>
@@ -32077,7 +32074,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2826" customHeight="1" ht="19.5">
       <c r="A2826" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2826" s="2" t="s">
         <v>2828</v>
@@ -32093,7 +32090,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2828" customHeight="1" ht="19.5">
       <c r="A2828" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2828" s="2" t="s">
         <v>2830</v>
@@ -32101,7 +32098,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2829" customHeight="1" ht="19.5">
       <c r="A2829" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2829" s="2" t="s">
         <v>2831</v>
@@ -32117,7 +32114,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2831" customHeight="1" ht="19.5">
       <c r="A2831" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2831" s="2" t="s">
         <v>2833</v>
@@ -32125,7 +32122,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2832" customHeight="1" ht="19.5">
       <c r="A2832" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2832" s="2" t="s">
         <v>2834</v>
@@ -32149,7 +32146,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2835" customHeight="1" ht="19.5">
       <c r="A2835" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2835" s="2" t="s">
         <v>2837</v>
@@ -32157,7 +32154,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2836" customHeight="1" ht="19.5">
       <c r="A2836" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2836" s="2" t="s">
         <v>2838</v>
@@ -32165,7 +32162,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2837" customHeight="1" ht="19.5">
       <c r="A2837" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2837" s="2" t="s">
         <v>2839</v>
@@ -32205,29 +32202,29 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2842" customHeight="1" ht="19.5">
       <c r="A2842" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2842" s="2" t="s">
         <v>2844</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2843" customHeight="1" ht="19.5">
-      <c r="A2843" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A2843" s="2"/>
       <c r="B2843" s="2" t="s">
         <v>2845</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2844" customHeight="1" ht="19.5">
-      <c r="A2844" s="2"/>
+      <c r="A2844" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2844" s="2" t="s">
         <v>2846</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2845" customHeight="1" ht="19.5">
       <c r="A2845" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2845" s="2" t="s">
         <v>2847</v>
@@ -32235,7 +32232,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2846" customHeight="1" ht="19.5">
       <c r="A2846" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2846" s="2" t="s">
         <v>2848</v>
@@ -32243,7 +32240,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2847" customHeight="1" ht="19.5">
       <c r="A2847" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2847" s="2" t="s">
         <v>2849</v>
@@ -32251,7 +32248,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2848" customHeight="1" ht="19.5">
       <c r="A2848" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2848" s="2" t="s">
         <v>2850</v>
@@ -32291,7 +32288,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2853" customHeight="1" ht="19.5">
       <c r="A2853" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2853" s="2" t="s">
         <v>2855</v>
@@ -32299,7 +32296,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2854" customHeight="1" ht="19.5">
       <c r="A2854" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2854" s="2" t="s">
         <v>2856</v>
@@ -32315,7 +32312,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2856" customHeight="1" ht="19.5">
       <c r="A2856" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2856" s="2" t="s">
         <v>2858</v>
@@ -32331,7 +32328,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2858" customHeight="1" ht="19.5">
       <c r="A2858" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2858" s="2" t="s">
         <v>2860</v>
@@ -32347,7 +32344,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2860" customHeight="1" ht="19.5">
       <c r="A2860" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2860" s="2" t="s">
         <v>2862</v>
@@ -32355,7 +32352,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2861" customHeight="1" ht="19.5">
       <c r="A2861" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2861" s="2" t="s">
         <v>2863</v>
@@ -32363,7 +32360,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2862" customHeight="1" ht="19.5">
       <c r="A2862" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2862" s="2" t="s">
         <v>2864</v>
@@ -32371,7 +32368,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2863" customHeight="1" ht="19.5">
       <c r="A2863" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2863" s="2" t="s">
         <v>2865</v>
@@ -32395,7 +32392,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2866" customHeight="1" ht="19.5">
       <c r="A2866" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2866" s="2" t="s">
         <v>2868</v>
@@ -32403,7 +32400,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2867" customHeight="1" ht="19.5">
       <c r="A2867" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2867" s="2" t="s">
         <v>2869</v>
@@ -32411,7 +32408,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2868" customHeight="1" ht="19.5">
       <c r="A2868" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2868" s="2" t="s">
         <v>2870</v>
@@ -32419,7 +32416,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2869" customHeight="1" ht="19.5">
       <c r="A2869" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2869" s="2" t="s">
         <v>2871</v>
@@ -32427,7 +32424,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2870" customHeight="1" ht="19.5">
       <c r="A2870" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2870" s="2" t="s">
         <v>2872</v>
@@ -32435,7 +32432,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2871" customHeight="1" ht="19.5">
       <c r="A2871" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2871" s="2" t="s">
         <v>2873</v>
@@ -32451,7 +32448,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2873" customHeight="1" ht="19.5">
       <c r="A2873" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2873" s="2" t="s">
         <v>2875</v>
@@ -32459,7 +32456,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2874" customHeight="1" ht="19.5">
       <c r="A2874" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2874" s="2" t="s">
         <v>2876</v>
@@ -32475,7 +32472,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2876" customHeight="1" ht="19.5">
       <c r="A2876" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2876" s="2" t="s">
         <v>2878</v>
@@ -32483,7 +32480,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2877" customHeight="1" ht="19.5">
       <c r="A2877" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2877" s="2" t="s">
         <v>2879</v>
@@ -32507,7 +32504,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2880" customHeight="1" ht="19.5">
       <c r="A2880" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2880" s="2" t="s">
         <v>2882</v>
@@ -32515,7 +32512,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2881" customHeight="1" ht="19.5">
       <c r="A2881" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2881" s="2" t="s">
         <v>2883</v>
@@ -32523,7 +32520,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2882" customHeight="1" ht="19.5">
       <c r="A2882" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2882" s="2" t="s">
         <v>2884</v>
@@ -32531,7 +32528,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2883" customHeight="1" ht="19.5">
       <c r="A2883" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2883" s="2" t="s">
         <v>2885</v>
@@ -32539,7 +32536,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2884" customHeight="1" ht="19.5">
       <c r="A2884" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2884" s="2" t="s">
         <v>2886</v>
@@ -32555,7 +32552,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2886" customHeight="1" ht="19.5">
       <c r="A2886" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2886" s="2" t="s">
         <v>2888</v>
@@ -32563,7 +32560,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2887" customHeight="1" ht="19.5">
       <c r="A2887" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2887" s="2" t="s">
         <v>2889</v>
@@ -32571,7 +32568,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2888" customHeight="1" ht="19.5">
       <c r="A2888" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2888" s="2" t="s">
         <v>2890</v>
@@ -32611,7 +32608,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2893" customHeight="1" ht="19.5">
       <c r="A2893" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2893" s="2" t="s">
         <v>2895</v>
@@ -32619,7 +32616,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2894" customHeight="1" ht="19.5">
       <c r="A2894" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2894" s="2" t="s">
         <v>2896</v>
@@ -32683,7 +32680,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2902" customHeight="1" ht="19.5">
       <c r="A2902" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2902" s="2" t="s">
         <v>2904</v>
@@ -32691,7 +32688,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2903" customHeight="1" ht="19.5">
       <c r="A2903" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2903" s="2" t="s">
         <v>2905</v>
@@ -32699,7 +32696,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2904" customHeight="1" ht="19.5">
       <c r="A2904" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2904" s="2" t="s">
         <v>2906</v>
@@ -32715,7 +32712,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2906" customHeight="1" ht="19.5">
       <c r="A2906" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2906" s="2" t="s">
         <v>2908</v>
@@ -32731,7 +32728,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2908" customHeight="1" ht="19.5">
       <c r="A2908" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2908" s="2" t="s">
         <v>2910</v>
@@ -32755,7 +32752,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2911" customHeight="1" ht="19.5">
       <c r="A2911" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2911" s="2" t="s">
         <v>2913</v>
@@ -32763,7 +32760,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2912" customHeight="1" ht="19.5">
       <c r="A2912" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2912" s="2" t="s">
         <v>2914</v>
@@ -32771,7 +32768,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2913" customHeight="1" ht="19.5">
       <c r="A2913" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2913" s="2" t="s">
         <v>2915</v>
@@ -32779,7 +32776,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2914" customHeight="1" ht="19.5">
       <c r="A2914" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2914" s="2" t="s">
         <v>2916</v>
@@ -32787,7 +32784,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2915" customHeight="1" ht="19.5">
       <c r="A2915" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2915" s="2" t="s">
         <v>2917</v>
@@ -32795,29 +32792,29 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2916" customHeight="1" ht="19.5">
       <c r="A2916" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2916" s="2" t="s">
         <v>2918</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2917" customHeight="1" ht="19.5">
-      <c r="A2917" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A2917" s="2"/>
       <c r="B2917" s="2" t="s">
         <v>2919</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2918" customHeight="1" ht="19.5">
-      <c r="A2918" s="2"/>
+      <c r="A2918" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2918" s="2" t="s">
         <v>2920</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2919" customHeight="1" ht="19.5">
       <c r="A2919" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2919" s="2" t="s">
         <v>2921</v>
@@ -32825,7 +32822,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2920" customHeight="1" ht="19.5">
       <c r="A2920" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2920" s="2" t="s">
         <v>2922</v>
@@ -32833,7 +32830,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2921" customHeight="1" ht="19.5">
       <c r="A2921" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2921" s="2" t="s">
         <v>2923</v>
@@ -32865,7 +32862,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2925" customHeight="1" ht="19.5">
       <c r="A2925" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2925" s="2" t="s">
         <v>2927</v>
@@ -32873,7 +32870,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2926" customHeight="1" ht="19.5">
       <c r="A2926" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2926" s="2" t="s">
         <v>2928</v>
@@ -32889,7 +32886,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2928" customHeight="1" ht="19.5">
       <c r="A2928" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2928" s="2" t="s">
         <v>2930</v>
@@ -32897,7 +32894,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2929" customHeight="1" ht="19.5">
       <c r="A2929" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2929" s="2" t="s">
         <v>2931</v>
@@ -32905,7 +32902,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2930" customHeight="1" ht="19.5">
       <c r="A2930" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2930" s="2" t="s">
         <v>2932</v>
@@ -32913,7 +32910,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2931" customHeight="1" ht="19.5">
       <c r="A2931" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2931" s="2" t="s">
         <v>2933</v>
@@ -32921,7 +32918,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2932" customHeight="1" ht="19.5">
       <c r="A2932" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2932" s="2" t="s">
         <v>2934</v>
@@ -32929,7 +32926,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2933" customHeight="1" ht="19.5">
       <c r="A2933" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2933" s="2" t="s">
         <v>2935</v>
@@ -32937,7 +32934,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2934" customHeight="1" ht="19.5">
       <c r="A2934" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2934" s="2" t="s">
         <v>2936</v>
@@ -32961,7 +32958,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2937" customHeight="1" ht="19.5">
       <c r="A2937" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2937" s="2" t="s">
         <v>2939</v>
@@ -32969,7 +32966,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2938" customHeight="1" ht="19.5">
       <c r="A2938" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2938" s="2" t="s">
         <v>2940</v>
@@ -32977,7 +32974,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2939" customHeight="1" ht="19.5">
       <c r="A2939" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2939" s="2" t="s">
         <v>2941</v>
@@ -32993,7 +32990,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2941" customHeight="1" ht="19.5">
       <c r="A2941" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2941" s="2" t="s">
         <v>2943</v>
@@ -33009,7 +33006,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2943" customHeight="1" ht="19.5">
       <c r="A2943" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2943" s="2" t="s">
         <v>2945</v>
@@ -33017,7 +33014,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2944" customHeight="1" ht="19.5">
       <c r="A2944" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2944" s="2" t="s">
         <v>2946</v>
@@ -33025,7 +33022,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2945" customHeight="1" ht="19.5">
       <c r="A2945" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2945" s="2" t="s">
         <v>2947</v>
@@ -33033,7 +33030,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2946" customHeight="1" ht="19.5">
       <c r="A2946" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2946" s="2" t="s">
         <v>2948</v>
@@ -33041,7 +33038,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2947" customHeight="1" ht="19.5">
       <c r="A2947" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2947" s="2" t="s">
         <v>2949</v>
@@ -33049,7 +33046,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2948" customHeight="1" ht="19.5">
       <c r="A2948" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2948" s="2" t="s">
         <v>2950</v>
@@ -33073,7 +33070,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2951" customHeight="1" ht="19.5">
       <c r="A2951" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2951" s="2" t="s">
         <v>2953</v>
@@ -33081,7 +33078,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2952" customHeight="1" ht="19.5">
       <c r="A2952" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2952" s="2" t="s">
         <v>2954</v>
@@ -33089,7 +33086,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2953" customHeight="1" ht="19.5">
       <c r="A2953" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2953" s="2" t="s">
         <v>2955</v>
@@ -33105,7 +33102,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2955" customHeight="1" ht="19.5">
       <c r="A2955" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2955" s="2" t="s">
         <v>2957</v>
@@ -33145,7 +33142,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2960" customHeight="1" ht="19.5">
       <c r="A2960" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2960" s="2" t="s">
         <v>2962</v>
@@ -33153,7 +33150,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2961" customHeight="1" ht="19.5">
       <c r="A2961" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2961" s="2" t="s">
         <v>2963</v>
@@ -33161,7 +33158,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2962" customHeight="1" ht="19.5">
       <c r="A2962" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2962" s="2" t="s">
         <v>2964</v>
@@ -33169,7 +33166,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2963" customHeight="1" ht="19.5">
       <c r="A2963" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2963" s="2" t="s">
         <v>2965</v>
@@ -33185,29 +33182,29 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2965" customHeight="1" ht="19.5">
       <c r="A2965" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2965" s="2" t="s">
         <v>2967</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2966" customHeight="1" ht="19.5">
-      <c r="A2966" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2966" s="2"/>
       <c r="B2966" s="2" t="s">
         <v>2968</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2967" customHeight="1" ht="19.5">
-      <c r="A2967" s="2"/>
+      <c r="A2967" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B2967" s="2" t="s">
         <v>2969</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2968" customHeight="1" ht="19.5">
       <c r="A2968" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2968" s="2" t="s">
         <v>2970</v>
@@ -33215,7 +33212,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2969" customHeight="1" ht="19.5">
       <c r="A2969" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2969" s="2" t="s">
         <v>2971</v>
@@ -33223,7 +33220,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2970" customHeight="1" ht="19.5">
       <c r="A2970" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2970" s="2" t="s">
         <v>2972</v>
@@ -33247,7 +33244,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2973" customHeight="1" ht="19.5">
       <c r="A2973" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2973" s="2" t="s">
         <v>2975</v>
@@ -33263,7 +33260,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2975" customHeight="1" ht="19.5">
       <c r="A2975" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2975" s="2" t="s">
         <v>2977</v>
@@ -33271,7 +33268,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2976" customHeight="1" ht="19.5">
       <c r="A2976" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2976" s="2" t="s">
         <v>2978</v>
@@ -33279,7 +33276,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2977" customHeight="1" ht="19.5">
       <c r="A2977" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2977" s="2" t="s">
         <v>2979</v>
@@ -33295,7 +33292,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2979" customHeight="1" ht="19.5">
       <c r="A2979" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2979" s="2" t="s">
         <v>2981</v>
@@ -33303,7 +33300,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2980" customHeight="1" ht="19.5">
       <c r="A2980" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2980" s="2" t="s">
         <v>2982</v>
@@ -33319,7 +33316,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2982" customHeight="1" ht="19.5">
       <c r="A2982" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2982" s="2" t="s">
         <v>2984</v>
@@ -33327,7 +33324,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2983" customHeight="1" ht="19.5">
       <c r="A2983" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2983" s="2" t="s">
         <v>2985</v>
@@ -33335,7 +33332,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2984" customHeight="1" ht="19.5">
       <c r="A2984" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2984" s="2" t="s">
         <v>2986</v>
@@ -33343,7 +33340,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2985" customHeight="1" ht="19.5">
       <c r="A2985" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2985" s="2" t="s">
         <v>2987</v>
@@ -33351,7 +33348,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2986" customHeight="1" ht="19.5">
       <c r="A2986" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2986" s="2" t="s">
         <v>2988</v>
@@ -33359,7 +33356,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2987" customHeight="1" ht="19.5">
       <c r="A2987" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2987" s="2" t="s">
         <v>2989</v>
@@ -33367,7 +33364,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2988" customHeight="1" ht="19.5">
       <c r="A2988" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2988" s="2" t="s">
         <v>2990</v>
@@ -33375,7 +33372,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2989" customHeight="1" ht="19.5">
       <c r="A2989" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2989" s="2" t="s">
         <v>2991</v>
@@ -33383,7 +33380,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2990" customHeight="1" ht="19.5">
       <c r="A2990" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2990" s="2" t="s">
         <v>2992</v>
@@ -33391,7 +33388,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2991" customHeight="1" ht="19.5">
       <c r="A2991" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2991" s="2" t="s">
         <v>2993</v>
@@ -33399,7 +33396,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2992" customHeight="1" ht="19.5">
       <c r="A2992" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2992" s="2" t="s">
         <v>2994</v>
@@ -33415,7 +33412,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2994" customHeight="1" ht="19.5">
       <c r="A2994" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2994" s="2" t="s">
         <v>2996</v>
@@ -33431,7 +33428,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2996" customHeight="1" ht="19.5">
       <c r="A2996" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2996" s="2" t="s">
         <v>2998</v>
@@ -33439,7 +33436,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2997" customHeight="1" ht="19.5">
       <c r="A2997" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2997" s="2" t="s">
         <v>2999</v>
@@ -33447,7 +33444,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2998" customHeight="1" ht="19.5">
       <c r="A2998" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2998" s="2" t="s">
         <v>3000</v>
@@ -33463,7 +33460,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3000" customHeight="1" ht="19.5">
       <c r="A3000" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3000" s="2" t="s">
         <v>3002</v>
@@ -33479,7 +33476,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3002" customHeight="1" ht="19.5">
       <c r="A3002" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3002" s="2" t="s">
         <v>3004</v>
@@ -33487,7 +33484,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3003" customHeight="1" ht="19.5">
       <c r="A3003" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3003" s="2" t="s">
         <v>3005</v>
@@ -33495,7 +33492,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3004" customHeight="1" ht="19.5">
       <c r="A3004" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3004" s="2" t="s">
         <v>3006</v>
@@ -33503,7 +33500,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3005" customHeight="1" ht="19.5">
       <c r="A3005" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3005" s="2" t="s">
         <v>3007</v>
@@ -33511,7 +33508,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3006" customHeight="1" ht="19.5">
       <c r="A3006" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3006" s="2" t="s">
         <v>3008</v>
@@ -33527,7 +33524,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3008" customHeight="1" ht="19.5">
       <c r="A3008" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3008" s="2" t="s">
         <v>3010</v>
@@ -33535,7 +33532,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3009" customHeight="1" ht="19.5">
       <c r="A3009" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3009" s="2" t="s">
         <v>3011</v>
@@ -33551,7 +33548,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3011" customHeight="1" ht="19.5">
       <c r="A3011" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3011" s="2" t="s">
         <v>3013</v>
@@ -33559,7 +33556,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3012" customHeight="1" ht="19.5">
       <c r="A3012" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3012" s="2" t="s">
         <v>3014</v>
@@ -33567,7 +33564,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3013" customHeight="1" ht="19.5">
       <c r="A3013" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3013" s="2" t="s">
         <v>3015</v>
@@ -33583,7 +33580,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3015" customHeight="1" ht="19.5">
       <c r="A3015" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3015" s="2" t="s">
         <v>3017</v>
@@ -33591,7 +33588,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3016" customHeight="1" ht="19.5">
       <c r="A3016" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3016" s="2" t="s">
         <v>3018</v>
@@ -33607,7 +33604,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3018" customHeight="1" ht="19.5">
       <c r="A3018" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3018" s="2" t="s">
         <v>3020</v>
@@ -33615,7 +33612,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3019" customHeight="1" ht="19.5">
       <c r="A3019" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3019" s="2" t="s">
         <v>3021</v>
@@ -33623,7 +33620,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3020" customHeight="1" ht="19.5">
       <c r="A3020" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3020" s="2" t="s">
         <v>3022</v>
@@ -33639,7 +33636,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3022" customHeight="1" ht="19.5">
       <c r="A3022" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3022" s="2" t="s">
         <v>3024</v>
@@ -33671,7 +33668,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3026" customHeight="1" ht="19.5">
       <c r="A3026" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3026" s="2" t="s">
         <v>3028</v>
@@ -33687,7 +33684,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3028" customHeight="1" ht="19.5">
       <c r="A3028" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3028" s="2" t="s">
         <v>3030</v>
@@ -33695,7 +33692,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3029" customHeight="1" ht="19.5">
       <c r="A3029" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3029" s="2" t="s">
         <v>3031</v>
@@ -33703,7 +33700,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3030" customHeight="1" ht="19.5">
       <c r="A3030" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3030" s="2" t="s">
         <v>3032</v>
@@ -33711,7 +33708,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3031" customHeight="1" ht="19.5">
       <c r="A3031" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3031" s="2" t="s">
         <v>3033</v>
@@ -33727,7 +33724,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3033" customHeight="1" ht="19.5">
       <c r="A3033" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3033" s="2" t="s">
         <v>3035</v>
@@ -33735,7 +33732,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3034" customHeight="1" ht="19.5">
       <c r="A3034" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3034" s="2" t="s">
         <v>3036</v>
@@ -33743,7 +33740,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3035" customHeight="1" ht="19.5">
       <c r="A3035" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3035" s="2" t="s">
         <v>3037</v>
@@ -33751,7 +33748,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3036" customHeight="1" ht="19.5">
       <c r="A3036" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3036" s="2" t="s">
         <v>3038</v>
@@ -33759,18 +33756,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3037" customHeight="1" ht="19.5">
       <c r="A3037" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3037" s="2" t="s">
         <v>3039</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3038" customHeight="1" ht="19.5">
-      <c r="A3038" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3038" s="2" t="s">
-        <v>3040</v>
       </c>
     </row>
   </sheetData>
